--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL   ARCHIVO   2 0 2 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#16   ARCHIVO   2 0 2 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="435">
   <si>
     <t>FECHA</t>
   </si>
@@ -1386,7 +1386,49 @@
     <t>DEL 1 Dic   al   31--Dic--2023</t>
   </si>
   <si>
-    <t>del   02 - al  05  Enero    2024</t>
+    <t>del   02 - al  06  Enero    2024</t>
+  </si>
+  <si>
+    <t>Del 2  al  06-Ene-24.,</t>
+  </si>
+  <si>
+    <t>chuleta--Jamon--Quesillo-pollo-tostadas--tocino-Philadelphia -gouda--milanesa pollo-condimento</t>
+  </si>
+  <si>
+    <t>Jitomate-Papa-Poblano-Chayote-Calabaza-Ejote-Tomate-Cebolla-Champiñones</t>
+  </si>
+  <si>
+    <t>Melon--Papaya--Limon--Guayaba--Sandia--Guanabana</t>
+  </si>
+  <si>
+    <t>Romana--Brocolis---Epazote</t>
+  </si>
+  <si>
+    <t>Elote-Leche--Italpasta---Crema --café Molido--Lehce</t>
+  </si>
+  <si>
+    <t>jamaica--Frijol michigan</t>
+  </si>
+  <si>
+    <t>Del 2  al    06-Ene-24.,</t>
+  </si>
+  <si>
+    <t>Jamon--quesillo--chuleta-queso--pollo-gouda-crema-tostadas--milanesa de pollo-condimento-Philadelphia</t>
+  </si>
+  <si>
+    <t>Jitomate--Papa-Poblano-Calabaza-Chayote--Ejote--Cebolla-Tomate--Limon-Tampico--Ajo</t>
+  </si>
+  <si>
+    <t>Papaya--Guayaba--Sandia--Naranja</t>
+  </si>
+  <si>
+    <t>Brocoli--Hoja de aguacate--oregano-cilantro-Epazote</t>
+  </si>
+  <si>
+    <t>AZUCAR 50kg 5-Ene-24------crema lala--rajas-Elote-Mayonesa-Nescafe--Leche-</t>
+  </si>
+  <si>
+    <t>Chile Guajillo--Pulla-Ancho--Canela--plancha mixiote--Jamaica</t>
   </si>
 </sst>
 </file>
@@ -3319,18 +3361,6 @@
     <xf numFmtId="44" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3350,6 +3380,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3373,17 +3415,17 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3406,14 +3448,14 @@
     <xf numFmtId="44" fontId="4" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="21" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="21" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="21" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3790,17 +3832,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="316" t="s">
+      <c r="C1" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
       <c r="L1" s="127" t="s">
         <v>41</v>
       </c>
@@ -3822,21 +3864,21 @@
       </c>
     </row>
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="320" t="s">
+      <c r="I2" s="316" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="321"/>
-      <c r="K2" s="322"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="318"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
       <c r="P2"/>
-      <c r="V2" s="320" t="s">
+      <c r="V2" s="316" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="321"/>
-      <c r="X2" s="322"/>
+      <c r="W2" s="317"/>
+      <c r="X2" s="318"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -4499,8 +4541,8 @@
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
         <v>14572.5</v>
       </c>
-      <c r="G20" s="312"/>
-      <c r="H20" s="313"/>
+      <c r="G20" s="319"/>
+      <c r="H20" s="320"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -4515,8 +4557,8 @@
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>21274</v>
       </c>
-      <c r="T20" s="314"/>
-      <c r="U20" s="315"/>
+      <c r="T20" s="321"/>
+      <c r="U20" s="322"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -5618,8 +5660,8 @@
         <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
         <v>50513</v>
       </c>
-      <c r="G19" s="312"/>
-      <c r="H19" s="313"/>
+      <c r="G19" s="319"/>
+      <c r="H19" s="320"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -5633,8 +5675,8 @@
         <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
         <v>78100</v>
       </c>
-      <c r="U19" s="314"/>
-      <c r="V19" s="315"/>
+      <c r="U19" s="321"/>
+      <c r="V19" s="322"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -5769,17 +5811,17 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="316" t="s">
+      <c r="B2" s="312" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
       <c r="M2" s="323" t="s">
@@ -5794,7 +5836,7 @@
       <c r="T2" s="324"/>
       <c r="U2" s="324"/>
       <c r="V2" s="324"/>
-      <c r="W2" s="333"/>
+      <c r="W2" s="330"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -7057,8 +7099,8 @@
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="312"/>
-      <c r="G30" s="313"/>
+      <c r="F30" s="319"/>
+      <c r="G30" s="320"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -7070,8 +7112,8 @@
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="314"/>
-      <c r="S30" s="315"/>
+      <c r="R30" s="321"/>
+      <c r="S30" s="322"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -7184,16 +7226,22 @@
   </sheetPr>
   <dimension ref="B1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7245,7 +7293,7 @@
       <c r="O3" s="7"/>
       <c r="V3" s="288" t="str">
         <f>I3</f>
-        <v>del   02 - al  05  Enero    2024</v>
+        <v>del   02 - al  06  Enero    2024</v>
       </c>
       <c r="W3" s="289"/>
       <c r="X3" s="290"/>
@@ -7278,7 +7326,7 @@
       <c r="J4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="183" t="s">
+      <c r="K4" s="181" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="99" t="s">
@@ -7319,10 +7367,10 @@
     </row>
     <row r="5" spans="2:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C5" s="234" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -7331,15 +7379,18 @@
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="K5" s="72">
+        <f>1654+1169+1916</f>
+        <v>4739</v>
+      </c>
       <c r="L5" s="71"/>
       <c r="M5" s="131"/>
       <c r="N5" s="74"/>
       <c r="O5" s="93" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="P5" s="234" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="Q5" s="283"/>
       <c r="R5" s="283"/>
@@ -7348,21 +7399,27 @@
       <c r="U5" s="283"/>
       <c r="V5" s="283"/>
       <c r="W5" s="283"/>
-      <c r="X5" s="72"/>
+      <c r="X5" s="72">
+        <f>2653+2376+1663</f>
+        <v>6692</v>
+      </c>
       <c r="AA5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="F6" s="67">
+        <f>2005+400</f>
+        <v>2405</v>
+      </c>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
@@ -7372,31 +7429,35 @@
       <c r="M6" s="131"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="Q6" s="283"/>
       <c r="R6" s="283"/>
-      <c r="S6" s="283"/>
+      <c r="S6" s="283">
+        <v>4495</v>
+      </c>
       <c r="T6" s="283"/>
       <c r="U6" s="283"/>
       <c r="V6" s="283"/>
       <c r="W6" s="283"/>
       <c r="X6" s="67"/>
     </row>
-    <row r="7" spans="2:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="G7" s="67">
+        <v>82</v>
+      </c>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="67"/>
@@ -7405,12 +7466,15 @@
       <c r="M7" s="131"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q7" s="283"/>
+        <v>431</v>
+      </c>
+      <c r="Q7" s="283">
+        <f>149+280+180+150</f>
+        <v>759</v>
+      </c>
       <c r="R7" s="283"/>
       <c r="S7" s="283"/>
       <c r="T7" s="283"/>
@@ -7419,14 +7483,17 @@
       <c r="W7" s="283"/>
       <c r="X7" s="67"/>
     </row>
-    <row r="8" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8" s="67"/>
+        <v>424</v>
+      </c>
+      <c r="D8" s="67">
+        <f>70+119+260+44+280+140+210</f>
+        <v>1123</v>
+      </c>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
@@ -7438,15 +7505,17 @@
       <c r="M8" s="131"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="P8" s="96" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="Q8" s="283"/>
       <c r="R8" s="283"/>
       <c r="S8" s="283"/>
-      <c r="T8" s="283"/>
+      <c r="T8" s="283">
+        <v>85</v>
+      </c>
       <c r="U8" s="283"/>
       <c r="V8" s="283"/>
       <c r="W8" s="283"/>
@@ -7454,7 +7523,7 @@
     </row>
     <row r="9" spans="2:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C9" s="239" t="s">
         <v>12</v>
@@ -7464,14 +7533,16 @@
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="I9" s="67">
+        <v>237</v>
+      </c>
       <c r="J9" s="67"/>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="P9" s="95" t="s">
         <v>4</v>
@@ -7486,12 +7557,12 @@
       <c r="X9" s="67"/>
       <c r="Y9" s="242"/>
     </row>
-    <row r="10" spans="2:27" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C10" s="277" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
@@ -7499,38 +7570,44 @@
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="J10" s="67">
+        <f>630+155.5+69</f>
+        <v>854.5</v>
+      </c>
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="131"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="P10" s="268" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="Q10" s="283"/>
-      <c r="R10" s="283"/>
+      <c r="R10" s="283">
+        <f>1730.5+300</f>
+        <v>2030.5</v>
+      </c>
       <c r="S10" s="283"/>
       <c r="T10" s="283"/>
       <c r="U10" s="283"/>
       <c r="V10" s="283"/>
       <c r="W10" s="283"/>
       <c r="X10" s="255"/>
-      <c r="Y10" s="284" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:27" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="67">
+        <f>76+150</f>
+        <v>226</v>
+      </c>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
@@ -7541,10 +7618,10 @@
       <c r="M11" s="131"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="P11" s="260" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="283"/>
       <c r="R11" s="283"/>
@@ -7552,13 +7629,18 @@
       <c r="T11" s="283"/>
       <c r="U11" s="283"/>
       <c r="V11" s="283"/>
-      <c r="W11" s="283"/>
+      <c r="W11" s="283">
+        <f>1170+216+1369</f>
+        <v>2755</v>
+      </c>
       <c r="X11" s="67"/>
-      <c r="Y11" s="129"/>
+      <c r="Y11" s="284" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="12" spans="2:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C12" s="95" t="s">
         <v>239</v>
@@ -7567,7 +7649,10 @@
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="H12" s="67">
+        <f>484+462</f>
+        <v>946</v>
+      </c>
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
       <c r="K12" s="67"/>
@@ -7575,7 +7660,7 @@
       <c r="M12" s="131"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="P12" s="195" t="s">
         <v>140</v>
@@ -7585,13 +7670,16 @@
       <c r="S12" s="283"/>
       <c r="T12" s="283"/>
       <c r="U12" s="283"/>
-      <c r="V12" s="283"/>
+      <c r="V12" s="283">
+        <f>462+880+3538</f>
+        <v>4880</v>
+      </c>
       <c r="W12" s="283"/>
       <c r="X12" s="67"/>
     </row>
     <row r="13" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C13" s="95" t="s">
         <v>96</v>
@@ -7600,7 +7688,10 @@
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="H13" s="67">
+        <f>51+85+68+119</f>
+        <v>323</v>
+      </c>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
@@ -7608,7 +7699,7 @@
       <c r="M13" s="131"/>
       <c r="N13" s="74"/>
       <c r="O13" s="93" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="P13" s="192" t="s">
         <v>217</v>
@@ -7618,14 +7709,17 @@
       <c r="S13" s="283"/>
       <c r="T13" s="283"/>
       <c r="U13" s="283"/>
-      <c r="V13" s="283"/>
+      <c r="V13" s="283">
+        <f>136+204+204+153</f>
+        <v>697</v>
+      </c>
       <c r="W13" s="283"/>
       <c r="X13" s="67"/>
       <c r="Y13" s="130"/>
     </row>
     <row r="14" spans="2:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>146</v>
@@ -7638,11 +7732,13 @@
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
+      <c r="L14" s="67">
+        <v>500</v>
+      </c>
       <c r="M14" s="131"/>
       <c r="N14" s="74"/>
       <c r="O14" s="93" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="P14" s="195"/>
       <c r="Q14" s="283"/>
@@ -7657,7 +7753,7 @@
     </row>
     <row r="15" spans="2:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="93" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C15" s="292" t="s">
         <v>370</v>
@@ -7768,39 +7864,39 @@
       </c>
       <c r="D19" s="30">
         <f>SUM(D5:D18)</f>
-        <v>0</v>
+        <v>1123</v>
       </c>
       <c r="E19" s="30">
         <f t="shared" ref="E19:L19" si="0">SUM(E5:E18)</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2405</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1269</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>854.5</v>
       </c>
       <c r="K19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4739</v>
       </c>
       <c r="L19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M19" s="132"/>
       <c r="N19" s="74"/>
@@ -7810,19 +7906,19 @@
       </c>
       <c r="Q19" s="21">
         <f t="shared" ref="Q19:X19" si="1">SUM(Q5:Q18)</f>
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2030.5</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4495</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="U19" s="21">
         <f t="shared" si="1"/>
@@ -7830,15 +7926,15 @@
       </c>
       <c r="V19" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5577</v>
       </c>
       <c r="W19" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2755</v>
       </c>
       <c r="X19" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7872,13 +7968,13 @@
       <c r="E21" s="5"/>
       <c r="F21" s="306">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
-        <v>0</v>
+        <v>11435.5</v>
       </c>
       <c r="G21" s="307"/>
       <c r="H21" s="308"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5">
-        <v>19826.5</v>
+        <v>11435.5</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="71"/>
@@ -7889,13 +7985,13 @@
       <c r="R21" s="5"/>
       <c r="S21" s="309">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
-        <v>0</v>
+        <v>22393.5</v>
       </c>
       <c r="T21" s="310"/>
       <c r="U21" s="311"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5">
-        <v>27619</v>
+        <v>22393.5</v>
       </c>
       <c r="X21" s="5"/>
     </row>
@@ -9483,33 +9579,33 @@
     <row r="62" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B63" s="7"/>
-      <c r="C63" s="316" t="s">
+      <c r="C63" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="317"/>
-      <c r="E63" s="317"/>
-      <c r="F63" s="317"/>
-      <c r="G63" s="317"/>
-      <c r="H63" s="317"/>
-      <c r="I63" s="317"/>
-      <c r="J63" s="317"/>
-      <c r="K63" s="317"/>
+      <c r="D63" s="313"/>
+      <c r="E63" s="313"/>
+      <c r="F63" s="313"/>
+      <c r="G63" s="313"/>
+      <c r="H63" s="313"/>
+      <c r="I63" s="313"/>
+      <c r="J63" s="313"/>
+      <c r="K63" s="313"/>
       <c r="L63" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M63" s="133"/>
       <c r="N63" s="81"/>
-      <c r="O63" s="318" t="s">
+      <c r="O63" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P63" s="319"/>
-      <c r="Q63" s="319"/>
-      <c r="R63" s="319"/>
-      <c r="S63" s="319"/>
-      <c r="T63" s="319"/>
-      <c r="U63" s="319"/>
-      <c r="V63" s="319"/>
-      <c r="W63" s="319"/>
+      <c r="P63" s="315"/>
+      <c r="Q63" s="315"/>
+      <c r="R63" s="315"/>
+      <c r="S63" s="315"/>
+      <c r="T63" s="315"/>
+      <c r="U63" s="315"/>
+      <c r="V63" s="315"/>
+      <c r="W63" s="315"/>
       <c r="X63" s="190" t="str">
         <f>L63</f>
         <v># 03</v>
@@ -9518,21 +9614,21 @@
     <row r="64" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="1"/>
-      <c r="I64" s="320" t="s">
+      <c r="I64" s="316" t="s">
         <v>379</v>
       </c>
-      <c r="J64" s="321"/>
-      <c r="K64" s="322"/>
+      <c r="J64" s="317"/>
+      <c r="K64" s="318"/>
       <c r="L64" s="68"/>
       <c r="M64" s="134"/>
       <c r="N64" s="74"/>
       <c r="O64" s="7"/>
-      <c r="V64" s="320" t="str">
+      <c r="V64" s="316" t="str">
         <f>I64</f>
         <v>del   09 - al  15  DICIEMBRE    2023</v>
       </c>
-      <c r="W64" s="321"/>
-      <c r="X64" s="322"/>
+      <c r="W64" s="317"/>
+      <c r="X64" s="318"/>
     </row>
     <row r="65" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
@@ -10206,8 +10302,8 @@
         <f>K80+J80+I80+H80+G80+F80+E80+D80+L80</f>
         <v>13656.5</v>
       </c>
-      <c r="G82" s="312"/>
-      <c r="H82" s="313"/>
+      <c r="G82" s="319"/>
+      <c r="H82" s="320"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -10221,8 +10317,8 @@
         <f>Q80+R80+S80+T80+U80+V80+W80+X80</f>
         <v>25696.5</v>
       </c>
-      <c r="T82" s="314"/>
-      <c r="U82" s="315"/>
+      <c r="T82" s="321"/>
+      <c r="U82" s="322"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
@@ -10257,33 +10353,33 @@
     <row r="93" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B94" s="7"/>
-      <c r="C94" s="316" t="s">
+      <c r="C94" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="317"/>
-      <c r="E94" s="317"/>
-      <c r="F94" s="317"/>
-      <c r="G94" s="317"/>
-      <c r="H94" s="317"/>
-      <c r="I94" s="317"/>
-      <c r="J94" s="317"/>
-      <c r="K94" s="317"/>
+      <c r="D94" s="313"/>
+      <c r="E94" s="313"/>
+      <c r="F94" s="313"/>
+      <c r="G94" s="313"/>
+      <c r="H94" s="313"/>
+      <c r="I94" s="313"/>
+      <c r="J94" s="313"/>
+      <c r="K94" s="313"/>
       <c r="L94" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M94" s="133"/>
       <c r="N94" s="81"/>
-      <c r="O94" s="318" t="s">
+      <c r="O94" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P94" s="319"/>
-      <c r="Q94" s="319"/>
-      <c r="R94" s="319"/>
-      <c r="S94" s="319"/>
-      <c r="T94" s="319"/>
-      <c r="U94" s="319"/>
-      <c r="V94" s="319"/>
-      <c r="W94" s="319"/>
+      <c r="P94" s="315"/>
+      <c r="Q94" s="315"/>
+      <c r="R94" s="315"/>
+      <c r="S94" s="315"/>
+      <c r="T94" s="315"/>
+      <c r="U94" s="315"/>
+      <c r="V94" s="315"/>
+      <c r="W94" s="315"/>
       <c r="X94" s="190" t="str">
         <f>L94</f>
         <v># 02</v>
@@ -10292,21 +10388,21 @@
     <row r="95" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="1"/>
-      <c r="I95" s="320" t="s">
+      <c r="I95" s="316" t="s">
         <v>349</v>
       </c>
-      <c r="J95" s="321"/>
-      <c r="K95" s="322"/>
+      <c r="J95" s="317"/>
+      <c r="K95" s="318"/>
       <c r="L95" s="68"/>
       <c r="M95" s="134"/>
       <c r="N95" s="74"/>
       <c r="O95" s="7"/>
-      <c r="V95" s="320" t="str">
+      <c r="V95" s="316" t="str">
         <f>I95</f>
         <v>del   02 - al  08  DICIEMBRE    2023</v>
       </c>
-      <c r="W95" s="321"/>
-      <c r="X95" s="322"/>
+      <c r="W95" s="317"/>
+      <c r="X95" s="318"/>
     </row>
     <row r="96" spans="1:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
@@ -10977,8 +11073,8 @@
         <f>K111+J111+I111+H111+G111+F111+E111+D111+L111</f>
         <v>11793</v>
       </c>
-      <c r="G113" s="312"/>
-      <c r="H113" s="313"/>
+      <c r="G113" s="319"/>
+      <c r="H113" s="320"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -10992,8 +11088,8 @@
         <f>Q111+R111+S111+T111+U111+V111+W111+X111</f>
         <v>19258</v>
       </c>
-      <c r="T113" s="314"/>
-      <c r="U113" s="315"/>
+      <c r="T113" s="321"/>
+      <c r="U113" s="322"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
@@ -11033,33 +11129,33 @@
     <row r="124" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B125" s="7"/>
-      <c r="C125" s="316" t="s">
+      <c r="C125" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D125" s="317"/>
-      <c r="E125" s="317"/>
-      <c r="F125" s="317"/>
-      <c r="G125" s="317"/>
-      <c r="H125" s="317"/>
-      <c r="I125" s="317"/>
-      <c r="J125" s="317"/>
-      <c r="K125" s="317"/>
+      <c r="D125" s="313"/>
+      <c r="E125" s="313"/>
+      <c r="F125" s="313"/>
+      <c r="G125" s="313"/>
+      <c r="H125" s="313"/>
+      <c r="I125" s="313"/>
+      <c r="J125" s="313"/>
+      <c r="K125" s="313"/>
       <c r="L125" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M125" s="133"/>
       <c r="N125" s="81"/>
-      <c r="O125" s="318" t="s">
+      <c r="O125" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P125" s="319"/>
-      <c r="Q125" s="319"/>
-      <c r="R125" s="319"/>
-      <c r="S125" s="319"/>
-      <c r="T125" s="319"/>
-      <c r="U125" s="319"/>
-      <c r="V125" s="319"/>
-      <c r="W125" s="319"/>
+      <c r="P125" s="315"/>
+      <c r="Q125" s="315"/>
+      <c r="R125" s="315"/>
+      <c r="S125" s="315"/>
+      <c r="T125" s="315"/>
+      <c r="U125" s="315"/>
+      <c r="V125" s="315"/>
+      <c r="W125" s="315"/>
       <c r="X125" s="190" t="str">
         <f>L125</f>
         <v># 01</v>
@@ -11068,21 +11164,21 @@
     <row r="126" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="1"/>
-      <c r="I126" s="320" t="s">
+      <c r="I126" s="316" t="s">
         <v>347</v>
       </c>
-      <c r="J126" s="321"/>
-      <c r="K126" s="322"/>
+      <c r="J126" s="317"/>
+      <c r="K126" s="318"/>
       <c r="L126" s="68"/>
       <c r="M126" s="134"/>
       <c r="N126" s="74"/>
       <c r="O126" s="7"/>
-      <c r="V126" s="320" t="str">
+      <c r="V126" s="316" t="str">
         <f>I126</f>
         <v>del   - al  01  DICIEMBRE    2023</v>
       </c>
-      <c r="W126" s="321"/>
-      <c r="X126" s="322"/>
+      <c r="W126" s="317"/>
+      <c r="X126" s="318"/>
     </row>
     <row r="127" spans="1:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
@@ -11711,8 +11807,8 @@
         <f>K142+J142+I142+H142+G142+F142+E142+D142+L142</f>
         <v>920</v>
       </c>
-      <c r="G144" s="312"/>
-      <c r="H144" s="313"/>
+      <c r="G144" s="319"/>
+      <c r="H144" s="320"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -11726,8 +11822,8 @@
         <f>Q142+R142+S142+T142+U142+V142+W142+X142</f>
         <v>4015</v>
       </c>
-      <c r="T144" s="314"/>
-      <c r="U144" s="315"/>
+      <c r="T144" s="321"/>
+      <c r="U144" s="322"/>
       <c r="V144" s="5"/>
       <c r="W144" s="5"/>
       <c r="X144" s="5"/>
@@ -11761,6 +11857,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="S144:U144"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="O94:W94"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="V95:X95"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="S113:U113"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="V126:X126"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
     <mergeCell ref="F51:H51"/>
@@ -11773,16 +11879,6 @@
     <mergeCell ref="V64:X64"/>
     <mergeCell ref="F82:H82"/>
     <mergeCell ref="S82:U82"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="S144:U144"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="O94:W94"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="V95:X95"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="S113:U113"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="V126:X126"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11818,33 +11914,33 @@
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="316" t="s">
+      <c r="C2" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
       <c r="L2" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="318" t="s">
+      <c r="O2" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="319"/>
-      <c r="T2" s="319"/>
-      <c r="U2" s="319"/>
-      <c r="V2" s="319"/>
-      <c r="W2" s="319"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="315"/>
+      <c r="S2" s="315"/>
+      <c r="T2" s="315"/>
+      <c r="U2" s="315"/>
+      <c r="V2" s="315"/>
+      <c r="W2" s="315"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 05</v>
@@ -11853,21 +11949,21 @@
     <row r="3" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="320" t="s">
+      <c r="I3" s="316" t="s">
         <v>321</v>
       </c>
-      <c r="J3" s="321"/>
-      <c r="K3" s="322"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="318"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="320" t="str">
+      <c r="V3" s="316" t="str">
         <f>I3</f>
         <v>del   25- al  30   NOVIEMBRE  2023</v>
       </c>
-      <c r="W3" s="321"/>
-      <c r="X3" s="322"/>
+      <c r="W3" s="317"/>
+      <c r="X3" s="318"/>
     </row>
     <row r="4" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -12539,8 +12635,8 @@
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>14252</v>
       </c>
-      <c r="G21" s="312"/>
-      <c r="H21" s="313"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="320"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -12554,8 +12650,8 @@
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>26704</v>
       </c>
-      <c r="T21" s="314"/>
-      <c r="U21" s="315"/>
+      <c r="T21" s="321"/>
+      <c r="U21" s="322"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -12642,33 +12738,33 @@
     <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
-      <c r="C29" s="316" t="s">
+      <c r="C29" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="317"/>
-      <c r="E29" s="317"/>
-      <c r="F29" s="317"/>
-      <c r="G29" s="317"/>
-      <c r="H29" s="317"/>
-      <c r="I29" s="317"/>
-      <c r="J29" s="317"/>
-      <c r="K29" s="317"/>
+      <c r="D29" s="313"/>
+      <c r="E29" s="313"/>
+      <c r="F29" s="313"/>
+      <c r="G29" s="313"/>
+      <c r="H29" s="313"/>
+      <c r="I29" s="313"/>
+      <c r="J29" s="313"/>
+      <c r="K29" s="313"/>
       <c r="L29" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M29" s="133"/>
       <c r="N29" s="81"/>
-      <c r="O29" s="318" t="s">
+      <c r="O29" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="319"/>
-      <c r="Q29" s="319"/>
-      <c r="R29" s="319"/>
-      <c r="S29" s="319"/>
-      <c r="T29" s="319"/>
-      <c r="U29" s="319"/>
-      <c r="V29" s="319"/>
-      <c r="W29" s="319"/>
+      <c r="P29" s="315"/>
+      <c r="Q29" s="315"/>
+      <c r="R29" s="315"/>
+      <c r="S29" s="315"/>
+      <c r="T29" s="315"/>
+      <c r="U29" s="315"/>
+      <c r="V29" s="315"/>
+      <c r="W29" s="315"/>
       <c r="X29" s="190" t="str">
         <f>L29</f>
         <v># 05</v>
@@ -12677,21 +12773,21 @@
     <row r="30" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
-      <c r="I30" s="320" t="s">
+      <c r="I30" s="316" t="s">
         <v>321</v>
       </c>
-      <c r="J30" s="321"/>
-      <c r="K30" s="322"/>
+      <c r="J30" s="317"/>
+      <c r="K30" s="318"/>
       <c r="L30" s="68"/>
       <c r="M30" s="134"/>
       <c r="N30" s="74"/>
       <c r="O30" s="7"/>
-      <c r="V30" s="320" t="str">
+      <c r="V30" s="316" t="str">
         <f>I30</f>
         <v>del   25- al  30   NOVIEMBRE  2023</v>
       </c>
-      <c r="W30" s="321"/>
-      <c r="X30" s="322"/>
+      <c r="W30" s="317"/>
+      <c r="X30" s="318"/>
     </row>
     <row r="31" spans="1:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
@@ -13363,8 +13459,8 @@
         <f>K46+J46+I46+H46+G46+F46+E46+D46+L46</f>
         <v>13752</v>
       </c>
-      <c r="G48" s="312"/>
-      <c r="H48" s="313"/>
+      <c r="G48" s="319"/>
+      <c r="H48" s="320"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -13378,8 +13474,8 @@
         <f>Q46+R46+S46+T46+U46+V46+W46+X46</f>
         <v>22689</v>
       </c>
-      <c r="T48" s="314"/>
-      <c r="U48" s="315"/>
+      <c r="T48" s="321"/>
+      <c r="U48" s="322"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -13558,33 +13654,33 @@
     <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="316" t="s">
+      <c r="C60" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="317"/>
-      <c r="E60" s="317"/>
-      <c r="F60" s="317"/>
-      <c r="G60" s="317"/>
-      <c r="H60" s="317"/>
-      <c r="I60" s="317"/>
-      <c r="J60" s="317"/>
-      <c r="K60" s="317"/>
+      <c r="D60" s="313"/>
+      <c r="E60" s="313"/>
+      <c r="F60" s="313"/>
+      <c r="G60" s="313"/>
+      <c r="H60" s="313"/>
+      <c r="I60" s="313"/>
+      <c r="J60" s="313"/>
+      <c r="K60" s="313"/>
       <c r="L60" s="128" t="s">
         <v>88</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="81"/>
-      <c r="O60" s="318" t="s">
+      <c r="O60" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="319"/>
-      <c r="Q60" s="319"/>
-      <c r="R60" s="319"/>
-      <c r="S60" s="319"/>
-      <c r="T60" s="319"/>
-      <c r="U60" s="319"/>
-      <c r="V60" s="319"/>
-      <c r="W60" s="319"/>
+      <c r="P60" s="315"/>
+      <c r="Q60" s="315"/>
+      <c r="R60" s="315"/>
+      <c r="S60" s="315"/>
+      <c r="T60" s="315"/>
+      <c r="U60" s="315"/>
+      <c r="V60" s="315"/>
+      <c r="W60" s="315"/>
       <c r="X60" s="190" t="str">
         <f>L60</f>
         <v># 04</v>
@@ -13593,21 +13689,21 @@
     <row r="61" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="I61" s="320" t="s">
+      <c r="I61" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="J61" s="321"/>
-      <c r="K61" s="322"/>
+      <c r="J61" s="317"/>
+      <c r="K61" s="318"/>
       <c r="L61" s="68"/>
       <c r="M61" s="134"/>
       <c r="N61" s="74"/>
       <c r="O61" s="7"/>
-      <c r="V61" s="320" t="str">
+      <c r="V61" s="316" t="str">
         <f>I61</f>
         <v>del   18- al  24   NOVIEMBRE  2023</v>
       </c>
-      <c r="W61" s="321"/>
-      <c r="X61" s="322"/>
+      <c r="W61" s="317"/>
+      <c r="X61" s="318"/>
     </row>
     <row r="62" spans="1:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
@@ -14277,8 +14373,8 @@
         <f>K77+J77+I77+H77+G77+F77+E77+D77+L77</f>
         <v>10727</v>
       </c>
-      <c r="G79" s="312"/>
-      <c r="H79" s="313"/>
+      <c r="G79" s="319"/>
+      <c r="H79" s="320"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -14292,8 +14388,8 @@
         <f>Q77+R77+S77+T77+U77+V77+W77+X77</f>
         <v>17666</v>
       </c>
-      <c r="T79" s="314"/>
-      <c r="U79" s="315"/>
+      <c r="T79" s="321"/>
+      <c r="U79" s="322"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -14421,33 +14517,33 @@
     <row r="88" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B89" s="7"/>
-      <c r="C89" s="316" t="s">
+      <c r="C89" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="317"/>
-      <c r="E89" s="317"/>
-      <c r="F89" s="317"/>
-      <c r="G89" s="317"/>
-      <c r="H89" s="317"/>
-      <c r="I89" s="317"/>
-      <c r="J89" s="317"/>
-      <c r="K89" s="317"/>
+      <c r="D89" s="313"/>
+      <c r="E89" s="313"/>
+      <c r="F89" s="313"/>
+      <c r="G89" s="313"/>
+      <c r="H89" s="313"/>
+      <c r="I89" s="313"/>
+      <c r="J89" s="313"/>
+      <c r="K89" s="313"/>
       <c r="L89" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M89" s="133"/>
       <c r="N89" s="81"/>
-      <c r="O89" s="318" t="s">
+      <c r="O89" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P89" s="319"/>
-      <c r="Q89" s="319"/>
-      <c r="R89" s="319"/>
-      <c r="S89" s="319"/>
-      <c r="T89" s="319"/>
-      <c r="U89" s="319"/>
-      <c r="V89" s="319"/>
-      <c r="W89" s="319"/>
+      <c r="P89" s="315"/>
+      <c r="Q89" s="315"/>
+      <c r="R89" s="315"/>
+      <c r="S89" s="315"/>
+      <c r="T89" s="315"/>
+      <c r="U89" s="315"/>
+      <c r="V89" s="315"/>
+      <c r="W89" s="315"/>
       <c r="X89" s="190" t="str">
         <f>L89</f>
         <v># 03</v>
@@ -14456,21 +14552,21 @@
     <row r="90" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7"/>
       <c r="C90" s="1"/>
-      <c r="I90" s="320" t="s">
+      <c r="I90" s="316" t="s">
         <v>290</v>
       </c>
-      <c r="J90" s="321"/>
-      <c r="K90" s="322"/>
+      <c r="J90" s="317"/>
+      <c r="K90" s="318"/>
       <c r="L90" s="68"/>
       <c r="M90" s="134"/>
       <c r="N90" s="74"/>
       <c r="O90" s="7"/>
-      <c r="V90" s="320" t="str">
+      <c r="V90" s="316" t="str">
         <f>I90</f>
         <v>del   11- al  17   NOVIEMBRE  2023</v>
       </c>
-      <c r="W90" s="321"/>
-      <c r="X90" s="322"/>
+      <c r="W90" s="317"/>
+      <c r="X90" s="318"/>
     </row>
     <row r="91" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
@@ -15148,8 +15244,8 @@
         <f>K106+J106+I106+H106+G106+F106+E106+D106+L106</f>
         <v>12113</v>
       </c>
-      <c r="G108" s="312"/>
-      <c r="H108" s="313"/>
+      <c r="G108" s="319"/>
+      <c r="H108" s="320"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -15163,8 +15259,8 @@
         <f>Q106+R106+S106+T106+U106+V106+W106+X106</f>
         <v>23360.5</v>
       </c>
-      <c r="T108" s="314"/>
-      <c r="U108" s="315"/>
+      <c r="T108" s="321"/>
+      <c r="U108" s="322"/>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
@@ -15196,33 +15292,33 @@
     <row r="119" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="7"/>
-      <c r="C120" s="316" t="s">
+      <c r="C120" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="317"/>
-      <c r="E120" s="317"/>
-      <c r="F120" s="317"/>
-      <c r="G120" s="317"/>
-      <c r="H120" s="317"/>
-      <c r="I120" s="317"/>
-      <c r="J120" s="317"/>
-      <c r="K120" s="317"/>
+      <c r="D120" s="313"/>
+      <c r="E120" s="313"/>
+      <c r="F120" s="313"/>
+      <c r="G120" s="313"/>
+      <c r="H120" s="313"/>
+      <c r="I120" s="313"/>
+      <c r="J120" s="313"/>
+      <c r="K120" s="313"/>
       <c r="L120" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M120" s="133"/>
       <c r="N120" s="81"/>
-      <c r="O120" s="318" t="s">
+      <c r="O120" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P120" s="319"/>
-      <c r="Q120" s="319"/>
-      <c r="R120" s="319"/>
-      <c r="S120" s="319"/>
-      <c r="T120" s="319"/>
-      <c r="U120" s="319"/>
-      <c r="V120" s="319"/>
-      <c r="W120" s="319"/>
+      <c r="P120" s="315"/>
+      <c r="Q120" s="315"/>
+      <c r="R120" s="315"/>
+      <c r="S120" s="315"/>
+      <c r="T120" s="315"/>
+      <c r="U120" s="315"/>
+      <c r="V120" s="315"/>
+      <c r="W120" s="315"/>
       <c r="X120" s="190" t="str">
         <f>L120</f>
         <v># 02</v>
@@ -15231,21 +15327,21 @@
     <row r="121" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
       <c r="C121" s="1"/>
-      <c r="I121" s="320" t="s">
+      <c r="I121" s="316" t="s">
         <v>275</v>
       </c>
-      <c r="J121" s="321"/>
-      <c r="K121" s="322"/>
+      <c r="J121" s="317"/>
+      <c r="K121" s="318"/>
       <c r="L121" s="68"/>
       <c r="M121" s="134"/>
       <c r="N121" s="74"/>
       <c r="O121" s="7"/>
-      <c r="V121" s="320" t="str">
+      <c r="V121" s="316" t="str">
         <f>I121</f>
         <v>del   04- al  10   NOVIEMBRE  2023</v>
       </c>
-      <c r="W121" s="321"/>
-      <c r="X121" s="322"/>
+      <c r="W121" s="317"/>
+      <c r="X121" s="318"/>
     </row>
     <row r="122" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
@@ -15915,8 +16011,8 @@
         <f>K137+J137+I137+H137+G137+F137+E137+D137+L137</f>
         <v>12757</v>
       </c>
-      <c r="G139" s="312"/>
-      <c r="H139" s="313"/>
+      <c r="G139" s="319"/>
+      <c r="H139" s="320"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -15930,8 +16026,8 @@
         <f>Q137+R137+S137+T137+U137+V137+W137+X137</f>
         <v>21698</v>
       </c>
-      <c r="T139" s="314"/>
-      <c r="U139" s="315"/>
+      <c r="T139" s="321"/>
+      <c r="U139" s="322"/>
       <c r="V139" s="5"/>
       <c r="W139" s="5"/>
       <c r="X139" s="5"/>
@@ -15963,33 +16059,33 @@
     <row r="148" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="149" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B149" s="7"/>
-      <c r="C149" s="316" t="s">
+      <c r="C149" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D149" s="317"/>
-      <c r="E149" s="317"/>
-      <c r="F149" s="317"/>
-      <c r="G149" s="317"/>
-      <c r="H149" s="317"/>
-      <c r="I149" s="317"/>
-      <c r="J149" s="317"/>
-      <c r="K149" s="317"/>
+      <c r="D149" s="313"/>
+      <c r="E149" s="313"/>
+      <c r="F149" s="313"/>
+      <c r="G149" s="313"/>
+      <c r="H149" s="313"/>
+      <c r="I149" s="313"/>
+      <c r="J149" s="313"/>
+      <c r="K149" s="313"/>
       <c r="L149" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M149" s="133"/>
       <c r="N149" s="81"/>
-      <c r="O149" s="318" t="s">
+      <c r="O149" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P149" s="319"/>
-      <c r="Q149" s="319"/>
-      <c r="R149" s="319"/>
-      <c r="S149" s="319"/>
-      <c r="T149" s="319"/>
-      <c r="U149" s="319"/>
-      <c r="V149" s="319"/>
-      <c r="W149" s="319"/>
+      <c r="P149" s="315"/>
+      <c r="Q149" s="315"/>
+      <c r="R149" s="315"/>
+      <c r="S149" s="315"/>
+      <c r="T149" s="315"/>
+      <c r="U149" s="315"/>
+      <c r="V149" s="315"/>
+      <c r="W149" s="315"/>
       <c r="X149" s="190" t="str">
         <f>L149</f>
         <v># 01</v>
@@ -15998,21 +16094,21 @@
     <row r="150" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="1"/>
-      <c r="I150" s="320" t="s">
+      <c r="I150" s="316" t="s">
         <v>248</v>
       </c>
-      <c r="J150" s="321"/>
-      <c r="K150" s="322"/>
+      <c r="J150" s="317"/>
+      <c r="K150" s="318"/>
       <c r="L150" s="68"/>
       <c r="M150" s="134"/>
       <c r="N150" s="74"/>
       <c r="O150" s="7"/>
-      <c r="V150" s="320" t="str">
+      <c r="V150" s="316" t="str">
         <f>I150</f>
         <v>del   01- al  3   NOVIEMBRE  2023</v>
       </c>
-      <c r="W150" s="321"/>
-      <c r="X150" s="322"/>
+      <c r="W150" s="317"/>
+      <c r="X150" s="318"/>
     </row>
     <row r="151" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
@@ -16633,8 +16729,8 @@
         <f>K166+J166+I166+H166+G166+F166+E166+D166+L166</f>
         <v>3455</v>
       </c>
-      <c r="G168" s="312"/>
-      <c r="H168" s="313"/>
+      <c r="G168" s="319"/>
+      <c r="H168" s="320"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
@@ -16648,8 +16744,8 @@
         <f>Q166+R166+S166+T166+U166+V166+W166+X166</f>
         <v>8067.5</v>
       </c>
-      <c r="T168" s="314"/>
-      <c r="U168" s="315"/>
+      <c r="T168" s="321"/>
+      <c r="U168" s="322"/>
       <c r="V168" s="5"/>
       <c r="W168" s="5"/>
       <c r="X168" s="5"/>
@@ -16680,42 +16776,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="O60:W60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="O89:W89"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="S108:U108"/>
+    <mergeCell ref="C120:K120"/>
+    <mergeCell ref="O120:W120"/>
+    <mergeCell ref="I121:K121"/>
+    <mergeCell ref="V121:X121"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="S139:U139"/>
+    <mergeCell ref="C149:K149"/>
+    <mergeCell ref="O149:W149"/>
+    <mergeCell ref="I150:K150"/>
+    <mergeCell ref="V150:X150"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="S168:U168"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="O29:W29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="S48:U48"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="O29:W29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="C149:K149"/>
-    <mergeCell ref="O149:W149"/>
-    <mergeCell ref="I150:K150"/>
-    <mergeCell ref="V150:X150"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="S168:U168"/>
-    <mergeCell ref="C120:K120"/>
-    <mergeCell ref="O120:W120"/>
-    <mergeCell ref="I121:K121"/>
-    <mergeCell ref="V121:X121"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="S139:U139"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="O89:W89"/>
-    <mergeCell ref="I90:K90"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="S108:U108"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="O60:W60"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="S79:U79"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16751,33 +16847,33 @@
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="316" t="s">
+      <c r="C2" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
       <c r="L2" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="318" t="s">
+      <c r="O2" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="319"/>
-      <c r="T2" s="319"/>
-      <c r="U2" s="319"/>
-      <c r="V2" s="319"/>
-      <c r="W2" s="319"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="315"/>
+      <c r="S2" s="315"/>
+      <c r="T2" s="315"/>
+      <c r="U2" s="315"/>
+      <c r="V2" s="315"/>
+      <c r="W2" s="315"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 05</v>
@@ -16786,21 +16882,21 @@
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="320" t="s">
+      <c r="I3" s="316" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="321"/>
-      <c r="K3" s="322"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="318"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="320" t="str">
+      <c r="V3" s="316" t="str">
         <f>I3</f>
         <v>del       28--- al  31    OCTUBRE-2023</v>
       </c>
-      <c r="W3" s="321"/>
-      <c r="X3" s="322"/>
+      <c r="W3" s="317"/>
+      <c r="X3" s="318"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -17463,8 +17559,8 @@
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>7829.5</v>
       </c>
-      <c r="G21" s="312"/>
-      <c r="H21" s="313"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="320"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -17478,8 +17574,8 @@
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>9034</v>
       </c>
-      <c r="T21" s="314"/>
-      <c r="U21" s="315"/>
+      <c r="T21" s="321"/>
+      <c r="U21" s="322"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -17511,33 +17607,33 @@
     <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
-      <c r="C30" s="316" t="s">
+      <c r="C30" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="317"/>
-      <c r="E30" s="317"/>
-      <c r="F30" s="317"/>
-      <c r="G30" s="317"/>
-      <c r="H30" s="317"/>
-      <c r="I30" s="317"/>
-      <c r="J30" s="317"/>
-      <c r="K30" s="317"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="313"/>
+      <c r="F30" s="313"/>
+      <c r="G30" s="313"/>
+      <c r="H30" s="313"/>
+      <c r="I30" s="313"/>
+      <c r="J30" s="313"/>
+      <c r="K30" s="313"/>
       <c r="L30" s="128" t="s">
         <v>88</v>
       </c>
       <c r="M30" s="133"/>
       <c r="N30" s="81"/>
-      <c r="O30" s="318" t="s">
+      <c r="O30" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="319"/>
-      <c r="Q30" s="319"/>
-      <c r="R30" s="319"/>
-      <c r="S30" s="319"/>
-      <c r="T30" s="319"/>
-      <c r="U30" s="319"/>
-      <c r="V30" s="319"/>
-      <c r="W30" s="319"/>
+      <c r="P30" s="315"/>
+      <c r="Q30" s="315"/>
+      <c r="R30" s="315"/>
+      <c r="S30" s="315"/>
+      <c r="T30" s="315"/>
+      <c r="U30" s="315"/>
+      <c r="V30" s="315"/>
+      <c r="W30" s="315"/>
       <c r="X30" s="190" t="str">
         <f>L30</f>
         <v># 04</v>
@@ -17546,21 +17642,21 @@
     <row r="31" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
-      <c r="I31" s="320" t="s">
+      <c r="I31" s="316" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="321"/>
-      <c r="K31" s="322"/>
+      <c r="J31" s="317"/>
+      <c r="K31" s="318"/>
       <c r="L31" s="68"/>
       <c r="M31" s="134"/>
       <c r="N31" s="74"/>
       <c r="O31" s="7"/>
-      <c r="V31" s="320" t="str">
+      <c r="V31" s="316" t="str">
         <f>I31</f>
         <v>del       21--- al  27    OCTUBRE-2023</v>
       </c>
-      <c r="W31" s="321"/>
-      <c r="X31" s="322"/>
+      <c r="W31" s="317"/>
+      <c r="X31" s="318"/>
     </row>
     <row r="32" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
@@ -18226,8 +18322,8 @@
         <f>K47+J47+I47+H47+G47+F47+E47+D47+L47</f>
         <v>9341</v>
       </c>
-      <c r="G49" s="312"/>
-      <c r="H49" s="313"/>
+      <c r="G49" s="319"/>
+      <c r="H49" s="320"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -18241,8 +18337,8 @@
         <f>Q47+R47+S47+T47+U47+V47+W47+X47</f>
         <v>20161</v>
       </c>
-      <c r="T49" s="314"/>
-      <c r="U49" s="315"/>
+      <c r="T49" s="321"/>
+      <c r="U49" s="322"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -18274,33 +18370,33 @@
     <row r="59" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="316" t="s">
+      <c r="C60" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="317"/>
-      <c r="E60" s="317"/>
-      <c r="F60" s="317"/>
-      <c r="G60" s="317"/>
-      <c r="H60" s="317"/>
-      <c r="I60" s="317"/>
-      <c r="J60" s="317"/>
-      <c r="K60" s="317"/>
+      <c r="D60" s="313"/>
+      <c r="E60" s="313"/>
+      <c r="F60" s="313"/>
+      <c r="G60" s="313"/>
+      <c r="H60" s="313"/>
+      <c r="I60" s="313"/>
+      <c r="J60" s="313"/>
+      <c r="K60" s="313"/>
       <c r="L60" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="81"/>
-      <c r="O60" s="318" t="s">
+      <c r="O60" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="319"/>
-      <c r="Q60" s="319"/>
-      <c r="R60" s="319"/>
-      <c r="S60" s="319"/>
-      <c r="T60" s="319"/>
-      <c r="U60" s="319"/>
-      <c r="V60" s="319"/>
-      <c r="W60" s="319"/>
+      <c r="P60" s="315"/>
+      <c r="Q60" s="315"/>
+      <c r="R60" s="315"/>
+      <c r="S60" s="315"/>
+      <c r="T60" s="315"/>
+      <c r="U60" s="315"/>
+      <c r="V60" s="315"/>
+      <c r="W60" s="315"/>
       <c r="X60" s="190" t="s">
         <v>66</v>
       </c>
@@ -18308,21 +18404,21 @@
     <row r="61" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="I61" s="320" t="s">
+      <c r="I61" s="316" t="s">
         <v>209</v>
       </c>
-      <c r="J61" s="321"/>
-      <c r="K61" s="322"/>
+      <c r="J61" s="317"/>
+      <c r="K61" s="318"/>
       <c r="L61" s="68"/>
       <c r="M61" s="134"/>
       <c r="N61" s="74"/>
       <c r="O61" s="7"/>
-      <c r="V61" s="320" t="str">
+      <c r="V61" s="316" t="str">
         <f>I61</f>
         <v>del       14--- al  20    OCTUBRE-2023</v>
       </c>
-      <c r="W61" s="321"/>
-      <c r="X61" s="322"/>
+      <c r="W61" s="317"/>
+      <c r="X61" s="318"/>
     </row>
     <row r="62" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
@@ -18978,8 +19074,8 @@
         <f>K77+J77+I77+H77+G77+F77+E77+D77+L77</f>
         <v>12198</v>
       </c>
-      <c r="G79" s="312"/>
-      <c r="H79" s="313"/>
+      <c r="G79" s="319"/>
+      <c r="H79" s="320"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -18993,8 +19089,8 @@
         <f>Q77+R77+S77+T77+U77+V77+W77+X77</f>
         <v>20122.5</v>
       </c>
-      <c r="T79" s="314"/>
-      <c r="U79" s="315"/>
+      <c r="T79" s="321"/>
+      <c r="U79" s="322"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -19145,33 +19241,33 @@
     <row r="90" spans="2:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B91" s="7"/>
-      <c r="C91" s="316" t="s">
+      <c r="C91" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="317"/>
-      <c r="E91" s="317"/>
-      <c r="F91" s="317"/>
-      <c r="G91" s="317"/>
-      <c r="H91" s="317"/>
-      <c r="I91" s="317"/>
-      <c r="J91" s="317"/>
-      <c r="K91" s="317"/>
+      <c r="D91" s="313"/>
+      <c r="E91" s="313"/>
+      <c r="F91" s="313"/>
+      <c r="G91" s="313"/>
+      <c r="H91" s="313"/>
+      <c r="I91" s="313"/>
+      <c r="J91" s="313"/>
+      <c r="K91" s="313"/>
       <c r="L91" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M91" s="133"/>
       <c r="N91" s="81"/>
-      <c r="O91" s="318" t="s">
+      <c r="O91" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P91" s="319"/>
-      <c r="Q91" s="319"/>
-      <c r="R91" s="319"/>
-      <c r="S91" s="319"/>
-      <c r="T91" s="319"/>
-      <c r="U91" s="319"/>
-      <c r="V91" s="319"/>
-      <c r="W91" s="319"/>
+      <c r="P91" s="315"/>
+      <c r="Q91" s="315"/>
+      <c r="R91" s="315"/>
+      <c r="S91" s="315"/>
+      <c r="T91" s="315"/>
+      <c r="U91" s="315"/>
+      <c r="V91" s="315"/>
+      <c r="W91" s="315"/>
       <c r="X91" s="190" t="s">
         <v>42</v>
       </c>
@@ -19179,21 +19275,21 @@
     <row r="92" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="1"/>
-      <c r="I92" s="320" t="s">
+      <c r="I92" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="J92" s="321"/>
-      <c r="K92" s="322"/>
+      <c r="J92" s="317"/>
+      <c r="K92" s="318"/>
       <c r="L92" s="68"/>
       <c r="M92" s="134"/>
       <c r="N92" s="74"/>
       <c r="O92" s="7"/>
-      <c r="V92" s="320" t="str">
+      <c r="V92" s="316" t="str">
         <f>I92</f>
         <v>del       07--- al  13    OCTUBRE-2023</v>
       </c>
-      <c r="W92" s="321"/>
-      <c r="X92" s="322"/>
+      <c r="W92" s="317"/>
+      <c r="X92" s="318"/>
     </row>
     <row r="93" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
@@ -19850,8 +19946,8 @@
         <f>K108+J108+I108+H108+G108+F108+E108+D108+L108</f>
         <v>12359</v>
       </c>
-      <c r="G110" s="312"/>
-      <c r="H110" s="313"/>
+      <c r="G110" s="319"/>
+      <c r="H110" s="320"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -19865,8 +19961,8 @@
         <f>Q108+R108+S108+T108+U108+V108+W108+X108</f>
         <v>18256.5</v>
       </c>
-      <c r="T110" s="314"/>
-      <c r="U110" s="315"/>
+      <c r="T110" s="321"/>
+      <c r="U110" s="322"/>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
@@ -19897,33 +19993,33 @@
     <row r="115" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B116" s="7"/>
-      <c r="C116" s="316" t="s">
+      <c r="C116" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="317"/>
-      <c r="E116" s="317"/>
-      <c r="F116" s="317"/>
-      <c r="G116" s="317"/>
-      <c r="H116" s="317"/>
-      <c r="I116" s="317"/>
-      <c r="J116" s="317"/>
-      <c r="K116" s="317"/>
+      <c r="D116" s="313"/>
+      <c r="E116" s="313"/>
+      <c r="F116" s="313"/>
+      <c r="G116" s="313"/>
+      <c r="H116" s="313"/>
+      <c r="I116" s="313"/>
+      <c r="J116" s="313"/>
+      <c r="K116" s="313"/>
       <c r="L116" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M116" s="133"/>
       <c r="N116" s="81"/>
-      <c r="O116" s="318" t="s">
+      <c r="O116" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P116" s="319"/>
-      <c r="Q116" s="319"/>
-      <c r="R116" s="319"/>
-      <c r="S116" s="319"/>
-      <c r="T116" s="319"/>
-      <c r="U116" s="319"/>
-      <c r="V116" s="319"/>
-      <c r="W116" s="319"/>
+      <c r="P116" s="315"/>
+      <c r="Q116" s="315"/>
+      <c r="R116" s="315"/>
+      <c r="S116" s="315"/>
+      <c r="T116" s="315"/>
+      <c r="U116" s="315"/>
+      <c r="V116" s="315"/>
+      <c r="W116" s="315"/>
       <c r="X116" s="190" t="s">
         <v>41</v>
       </c>
@@ -19931,21 +20027,21 @@
     <row r="117" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="1"/>
-      <c r="I117" s="320" t="s">
+      <c r="I117" s="316" t="s">
         <v>167</v>
       </c>
-      <c r="J117" s="321"/>
-      <c r="K117" s="322"/>
+      <c r="J117" s="317"/>
+      <c r="K117" s="318"/>
       <c r="L117" s="68"/>
       <c r="M117" s="134"/>
       <c r="N117" s="74"/>
       <c r="O117" s="7"/>
-      <c r="V117" s="320" t="str">
+      <c r="V117" s="316" t="str">
         <f>I117</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W117" s="321"/>
-      <c r="X117" s="322"/>
+      <c r="W117" s="317"/>
+      <c r="X117" s="318"/>
     </row>
     <row r="118" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
@@ -20581,8 +20677,8 @@
         <f>K133+J133+I133+H133+G133+F133+E133+D133+L133</f>
         <v>7969</v>
       </c>
-      <c r="G135" s="312"/>
-      <c r="H135" s="313"/>
+      <c r="G135" s="319"/>
+      <c r="H135" s="320"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -20596,8 +20692,8 @@
         <f>Q133+R133+S133+T133+U133+V133+W133+X133</f>
         <v>13753</v>
       </c>
-      <c r="T135" s="314"/>
-      <c r="U135" s="315"/>
+      <c r="T135" s="321"/>
+      <c r="U135" s="322"/>
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
@@ -20679,33 +20775,33 @@
     </row>
     <row r="142" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="7"/>
-      <c r="C142" s="316" t="s">
+      <c r="C142" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D142" s="317"/>
-      <c r="E142" s="317"/>
-      <c r="F142" s="317"/>
-      <c r="G142" s="317"/>
-      <c r="H142" s="317"/>
-      <c r="I142" s="317"/>
-      <c r="J142" s="317"/>
-      <c r="K142" s="317"/>
+      <c r="D142" s="313"/>
+      <c r="E142" s="313"/>
+      <c r="F142" s="313"/>
+      <c r="G142" s="313"/>
+      <c r="H142" s="313"/>
+      <c r="I142" s="313"/>
+      <c r="J142" s="313"/>
+      <c r="K142" s="313"/>
       <c r="L142" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M142" s="133"/>
       <c r="N142" s="81"/>
-      <c r="O142" s="318" t="s">
+      <c r="O142" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P142" s="319"/>
-      <c r="Q142" s="319"/>
-      <c r="R142" s="319"/>
-      <c r="S142" s="319"/>
-      <c r="T142" s="319"/>
-      <c r="U142" s="319"/>
-      <c r="V142" s="319"/>
-      <c r="W142" s="319"/>
+      <c r="P142" s="315"/>
+      <c r="Q142" s="315"/>
+      <c r="R142" s="315"/>
+      <c r="S142" s="315"/>
+      <c r="T142" s="315"/>
+      <c r="U142" s="315"/>
+      <c r="V142" s="315"/>
+      <c r="W142" s="315"/>
       <c r="X142" s="190" t="s">
         <v>41</v>
       </c>
@@ -20713,21 +20809,21 @@
     <row r="143" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="1"/>
-      <c r="I143" s="320" t="s">
+      <c r="I143" s="316" t="s">
         <v>167</v>
       </c>
-      <c r="J143" s="321"/>
-      <c r="K143" s="322"/>
+      <c r="J143" s="317"/>
+      <c r="K143" s="318"/>
       <c r="L143" s="68"/>
       <c r="M143" s="134"/>
       <c r="N143" s="74"/>
       <c r="O143" s="7"/>
-      <c r="V143" s="320" t="str">
+      <c r="V143" s="316" t="str">
         <f>I143</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W143" s="321"/>
-      <c r="X143" s="322"/>
+      <c r="W143" s="317"/>
+      <c r="X143" s="318"/>
     </row>
     <row r="144" spans="1:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
@@ -21384,8 +21480,8 @@
         <f>K159+J159+I159+H159+G159+F159+E159+D159+L159</f>
         <v>12113</v>
       </c>
-      <c r="G161" s="312"/>
-      <c r="H161" s="313"/>
+      <c r="G161" s="319"/>
+      <c r="H161" s="320"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -21399,8 +21495,8 @@
         <f>Q159+R159+S159+T159+U159+V159+W159+X159</f>
         <v>19443</v>
       </c>
-      <c r="T161" s="314"/>
-      <c r="U161" s="315"/>
+      <c r="T161" s="321"/>
+      <c r="U161" s="322"/>
       <c r="V161" s="5"/>
       <c r="W161" s="5"/>
       <c r="X161" s="5"/>
@@ -21445,42 +21541,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="O30:W30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="S110:U110"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="O142:W142"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="V143:X143"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="S161:U161"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="O60:W60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="C116:K116"/>
     <mergeCell ref="O116:W116"/>
     <mergeCell ref="I117:K117"/>
     <mergeCell ref="V117:X117"/>
     <mergeCell ref="F135:H135"/>
     <mergeCell ref="S135:U135"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="O60:W60"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="O142:W142"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="V143:X143"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="S161:U161"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="V92:X92"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="S110:U110"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="O30:W30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="S49:U49"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21528,51 +21624,51 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="316" t="s">
+      <c r="C2" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
       <c r="L2" s="185" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="318" t="s">
+      <c r="O2" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="319"/>
-      <c r="T2" s="319"/>
-      <c r="U2" s="319"/>
-      <c r="V2" s="319"/>
-      <c r="W2" s="319"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="315"/>
+      <c r="S2" s="315"/>
+      <c r="T2" s="315"/>
+      <c r="U2" s="315"/>
+      <c r="V2" s="315"/>
+      <c r="W2" s="315"/>
       <c r="X2" s="187" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="320" t="s">
+      <c r="I3" s="316" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="321"/>
-      <c r="K3" s="322"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="318"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
-      <c r="V3" s="320" t="s">
+      <c r="V3" s="316" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="321"/>
-      <c r="X3" s="322"/>
+      <c r="W3" s="317"/>
+      <c r="X3" s="318"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -22243,8 +22339,8 @@
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>15022</v>
       </c>
-      <c r="G21" s="312"/>
-      <c r="H21" s="313"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="320"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -22257,8 +22353,8 @@
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>23024</v>
       </c>
-      <c r="T21" s="314"/>
-      <c r="U21" s="315"/>
+      <c r="T21" s="321"/>
+      <c r="U21" s="322"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -22311,17 +22407,17 @@
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="316" t="s">
+      <c r="C32" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="317"/>
-      <c r="E32" s="317"/>
-      <c r="F32" s="317"/>
-      <c r="G32" s="317"/>
-      <c r="H32" s="317"/>
-      <c r="I32" s="317"/>
-      <c r="J32" s="317"/>
-      <c r="K32" s="317"/>
+      <c r="D32" s="313"/>
+      <c r="E32" s="313"/>
+      <c r="F32" s="313"/>
+      <c r="G32" s="313"/>
+      <c r="H32" s="313"/>
+      <c r="I32" s="313"/>
+      <c r="J32" s="313"/>
+      <c r="K32" s="313"/>
       <c r="L32" s="185" t="s">
         <v>208</v>
       </c>
@@ -22343,19 +22439,19 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="320" t="s">
+      <c r="I33" s="316" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="321"/>
-      <c r="K33" s="322"/>
+      <c r="J33" s="317"/>
+      <c r="K33" s="318"/>
       <c r="L33" s="68"/>
       <c r="M33" s="134"/>
       <c r="N33" s="74"/>
-      <c r="V33" s="320" t="s">
+      <c r="V33" s="316" t="s">
         <v>150</v>
       </c>
-      <c r="W33" s="321"/>
-      <c r="X33" s="322"/>
+      <c r="W33" s="317"/>
+      <c r="X33" s="318"/>
     </row>
     <row r="34" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
@@ -23015,8 +23111,8 @@
         <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
         <v>14572.5</v>
       </c>
-      <c r="G51" s="312"/>
-      <c r="H51" s="313"/>
+      <c r="G51" s="319"/>
+      <c r="H51" s="320"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -23029,8 +23125,8 @@
         <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
         <v>21274</v>
       </c>
-      <c r="T51" s="314"/>
-      <c r="U51" s="315"/>
+      <c r="T51" s="321"/>
+      <c r="U51" s="322"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -23095,17 +23191,17 @@
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C66" s="316" t="s">
+      <c r="C66" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="317"/>
-      <c r="E66" s="317"/>
-      <c r="F66" s="317"/>
-      <c r="G66" s="317"/>
-      <c r="H66" s="317"/>
-      <c r="I66" s="317"/>
-      <c r="J66" s="317"/>
-      <c r="K66" s="317"/>
+      <c r="D66" s="313"/>
+      <c r="E66" s="313"/>
+      <c r="F66" s="313"/>
+      <c r="G66" s="313"/>
+      <c r="H66" s="313"/>
+      <c r="I66" s="313"/>
+      <c r="J66" s="313"/>
+      <c r="K66" s="313"/>
       <c r="L66" s="84" t="s">
         <v>88</v>
       </c>
@@ -23127,19 +23223,19 @@
       </c>
     </row>
     <row r="67" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I67" s="320" t="s">
+      <c r="I67" s="316" t="s">
         <v>107</v>
       </c>
-      <c r="J67" s="321"/>
-      <c r="K67" s="322"/>
+      <c r="J67" s="317"/>
+      <c r="K67" s="318"/>
       <c r="L67" s="68"/>
       <c r="M67" s="59"/>
       <c r="N67" s="74"/>
-      <c r="V67" s="320" t="s">
+      <c r="V67" s="316" t="s">
         <v>107</v>
       </c>
-      <c r="W67" s="321"/>
-      <c r="X67" s="322"/>
+      <c r="W67" s="317"/>
+      <c r="X67" s="318"/>
     </row>
     <row r="68" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -23819,8 +23915,8 @@
         <f>K83+J83+I83+H83+G83+F83+E83+D83+L83</f>
         <v>9784</v>
       </c>
-      <c r="G85" s="312"/>
-      <c r="H85" s="313"/>
+      <c r="G85" s="319"/>
+      <c r="H85" s="320"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -23833,8 +23929,8 @@
         <f>Q83+R83+S83+T83+U83+V83+W83+X83</f>
         <v>18984.5</v>
       </c>
-      <c r="T85" s="314"/>
-      <c r="U85" s="315"/>
+      <c r="T85" s="321"/>
+      <c r="U85" s="322"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
@@ -23887,17 +23983,17 @@
     </row>
     <row r="96" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C97" s="316" t="s">
+      <c r="C97" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="317"/>
-      <c r="E97" s="317"/>
-      <c r="F97" s="317"/>
-      <c r="G97" s="317"/>
-      <c r="H97" s="317"/>
-      <c r="I97" s="317"/>
-      <c r="J97" s="317"/>
-      <c r="K97" s="317"/>
+      <c r="D97" s="313"/>
+      <c r="E97" s="313"/>
+      <c r="F97" s="313"/>
+      <c r="G97" s="313"/>
+      <c r="H97" s="313"/>
+      <c r="I97" s="313"/>
+      <c r="J97" s="313"/>
+      <c r="K97" s="313"/>
       <c r="L97" s="84" t="s">
         <v>66</v>
       </c>
@@ -23919,19 +24015,19 @@
       </c>
     </row>
     <row r="98" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I98" s="320" t="s">
+      <c r="I98" s="316" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="321"/>
-      <c r="K98" s="322"/>
+      <c r="J98" s="317"/>
+      <c r="K98" s="318"/>
       <c r="L98" s="68"/>
       <c r="M98" s="59"/>
       <c r="N98" s="74"/>
-      <c r="V98" s="320" t="s">
+      <c r="V98" s="316" t="s">
         <v>68</v>
       </c>
-      <c r="W98" s="321"/>
-      <c r="X98" s="322"/>
+      <c r="W98" s="317"/>
+      <c r="X98" s="318"/>
     </row>
     <row r="99" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
@@ -24607,8 +24703,8 @@
         <f>K114+J114+I114+H114+G114+F114+E114+D114+L114</f>
         <v>13702.5</v>
       </c>
-      <c r="G116" s="312"/>
-      <c r="H116" s="313"/>
+      <c r="G116" s="319"/>
+      <c r="H116" s="320"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -24621,8 +24717,8 @@
         <f>Q114+R114+S114+T114+U114+V114+W114+X114</f>
         <v>19583</v>
       </c>
-      <c r="T116" s="314"/>
-      <c r="U116" s="315"/>
+      <c r="T116" s="321"/>
+      <c r="U116" s="322"/>
       <c r="V116" s="5">
         <v>19583</v>
       </c>
@@ -24677,17 +24773,17 @@
     </row>
     <row r="129" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C130" s="316" t="s">
+      <c r="C130" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D130" s="317"/>
-      <c r="E130" s="317"/>
-      <c r="F130" s="317"/>
-      <c r="G130" s="317"/>
-      <c r="H130" s="317"/>
-      <c r="I130" s="317"/>
-      <c r="J130" s="317"/>
-      <c r="K130" s="317"/>
+      <c r="D130" s="313"/>
+      <c r="E130" s="313"/>
+      <c r="F130" s="313"/>
+      <c r="G130" s="313"/>
+      <c r="H130" s="313"/>
+      <c r="I130" s="313"/>
+      <c r="J130" s="313"/>
+      <c r="K130" s="313"/>
       <c r="L130" s="84" t="s">
         <v>42</v>
       </c>
@@ -24709,16 +24805,16 @@
       </c>
     </row>
     <row r="131" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I131" s="320" t="s">
+      <c r="I131" s="316" t="s">
         <v>67</v>
       </c>
-      <c r="J131" s="321"/>
-      <c r="K131" s="322"/>
+      <c r="J131" s="317"/>
+      <c r="K131" s="318"/>
       <c r="L131" s="68"/>
       <c r="M131" s="59"/>
       <c r="N131" s="74"/>
-      <c r="W131" s="321"/>
-      <c r="X131" s="322"/>
+      <c r="W131" s="317"/>
+      <c r="X131" s="318"/>
     </row>
     <row r="132" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
@@ -25389,8 +25485,8 @@
         <f>K147+J147+I147+H147+G147+F147+E147+D147+L147</f>
         <v>13447.5</v>
       </c>
-      <c r="G149" s="312"/>
-      <c r="H149" s="313"/>
+      <c r="G149" s="319"/>
+      <c r="H149" s="320"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
         <v>13447.5</v>
@@ -25405,8 +25501,8 @@
         <f>Q147+R147+S147+T147+U147+V147+W147+X147</f>
         <v>19080.5</v>
       </c>
-      <c r="T149" s="314"/>
-      <c r="U149" s="315"/>
+      <c r="T149" s="321"/>
+      <c r="U149" s="322"/>
       <c r="V149" s="5">
         <v>19080.5</v>
       </c>
@@ -25485,17 +25581,17 @@
     </row>
     <row r="155" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="156" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C156" s="316" t="s">
+      <c r="C156" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="D156" s="317"/>
-      <c r="E156" s="317"/>
-      <c r="F156" s="317"/>
-      <c r="G156" s="317"/>
-      <c r="H156" s="317"/>
-      <c r="I156" s="317"/>
-      <c r="J156" s="317"/>
-      <c r="K156" s="317"/>
+      <c r="D156" s="313"/>
+      <c r="E156" s="313"/>
+      <c r="F156" s="313"/>
+      <c r="G156" s="313"/>
+      <c r="H156" s="313"/>
+      <c r="I156" s="313"/>
+      <c r="J156" s="313"/>
+      <c r="K156" s="313"/>
       <c r="L156" s="84" t="s">
         <v>41</v>
       </c>
@@ -25517,16 +25613,16 @@
       </c>
     </row>
     <row r="157" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I157" s="320" t="s">
+      <c r="I157" s="316" t="s">
         <v>37</v>
       </c>
-      <c r="J157" s="321"/>
-      <c r="K157" s="322"/>
+      <c r="J157" s="317"/>
+      <c r="K157" s="318"/>
       <c r="L157" s="68"/>
       <c r="M157" s="59"/>
       <c r="N157" s="74"/>
-      <c r="W157" s="321"/>
-      <c r="X157" s="322"/>
+      <c r="W157" s="317"/>
+      <c r="X157" s="318"/>
     </row>
     <row r="158" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
@@ -26747,8 +26843,8 @@
         <f>K182+J182+I182+H182+G182+F182+E182+D182</f>
         <v>13579</v>
       </c>
-      <c r="G184" s="312"/>
-      <c r="H184" s="313"/>
+      <c r="G184" s="319"/>
+      <c r="H184" s="320"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5">
         <v>13579</v>
@@ -26763,8 +26859,8 @@
         <f>Q182+R182+S182+T182+U182+V182+W182+X182</f>
         <v>20452</v>
       </c>
-      <c r="T184" s="314"/>
-      <c r="U184" s="315"/>
+      <c r="T184" s="321"/>
+      <c r="U184" s="322"/>
       <c r="V184" s="5">
         <v>20452</v>
       </c>
@@ -26851,42 +26947,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="O130:W130"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="S149:U149"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="C156:K156"/>
+    <mergeCell ref="S184:U184"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="O156:W156"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="O97:W97"/>
+    <mergeCell ref="S116:U116"/>
+    <mergeCell ref="V98:X98"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="S51:U51"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="O97:W97"/>
-    <mergeCell ref="S116:U116"/>
-    <mergeCell ref="V98:X98"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="C156:K156"/>
-    <mergeCell ref="S184:U184"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="O156:W156"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="O130:W130"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="S149:U149"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="O66:W66"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="S85:U85"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26918,51 +27014,51 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="316" t="s">
+      <c r="D2" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="317"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="316" t="s">
+      <c r="T2" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="317"/>
-      <c r="V2" s="317"/>
-      <c r="W2" s="317"/>
-      <c r="X2" s="317"/>
-      <c r="Y2" s="317"/>
-      <c r="Z2" s="317"/>
-      <c r="AA2" s="317"/>
-      <c r="AB2" s="317"/>
+      <c r="U2" s="313"/>
+      <c r="V2" s="313"/>
+      <c r="W2" s="313"/>
+      <c r="X2" s="313"/>
+      <c r="Y2" s="313"/>
+      <c r="Z2" s="313"/>
+      <c r="AA2" s="313"/>
+      <c r="AB2" s="313"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="320" t="s">
+      <c r="J3" s="316" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="321"/>
+      <c r="K3" s="317"/>
       <c r="L3" s="326"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="320" t="s">
+      <c r="Z3" s="316" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="321"/>
-      <c r="AB3" s="322"/>
+      <c r="AA3" s="317"/>
+      <c r="AB3" s="318"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -27518,20 +27614,20 @@
     <row r="17" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
-      <c r="J17" s="320" t="s">
+      <c r="J17" s="316" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="321"/>
+      <c r="K17" s="317"/>
       <c r="L17" s="326"/>
       <c r="M17" s="68"/>
       <c r="N17" s="152"/>
       <c r="S17" s="7"/>
       <c r="T17" s="1"/>
-      <c r="Z17" s="320" t="s">
+      <c r="Z17" s="316" t="s">
         <v>184</v>
       </c>
-      <c r="AA17" s="321"/>
-      <c r="AB17" s="322"/>
+      <c r="AA17" s="317"/>
+      <c r="AB17" s="318"/>
       <c r="AC17" s="68"/>
       <c r="AD17" s="152"/>
     </row>
@@ -28077,110 +28173,110 @@
     <row r="1" spans="2:81" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:81" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="316" t="s">
+      <c r="D2" s="312" t="s">
         <v>409</v>
       </c>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="317"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="316" t="s">
+      <c r="T2" s="312" t="s">
         <v>336</v>
       </c>
-      <c r="U2" s="317"/>
-      <c r="V2" s="317"/>
-      <c r="W2" s="317"/>
-      <c r="X2" s="317"/>
-      <c r="Y2" s="317"/>
-      <c r="Z2" s="317"/>
-      <c r="AA2" s="317"/>
-      <c r="AB2" s="317"/>
+      <c r="U2" s="313"/>
+      <c r="V2" s="313"/>
+      <c r="W2" s="313"/>
+      <c r="X2" s="313"/>
+      <c r="Y2" s="313"/>
+      <c r="Z2" s="313"/>
+      <c r="AA2" s="313"/>
+      <c r="AB2" s="313"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
       <c r="AK2" s="7"/>
-      <c r="AL2" s="316" t="s">
+      <c r="AL2" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" s="317"/>
-      <c r="AN2" s="317"/>
-      <c r="AO2" s="317"/>
-      <c r="AP2" s="317"/>
-      <c r="AQ2" s="317"/>
-      <c r="AR2" s="317"/>
-      <c r="AS2" s="317"/>
-      <c r="AT2" s="317"/>
+      <c r="AM2" s="313"/>
+      <c r="AN2" s="313"/>
+      <c r="AO2" s="313"/>
+      <c r="AP2" s="313"/>
+      <c r="AQ2" s="313"/>
+      <c r="AR2" s="313"/>
+      <c r="AS2" s="313"/>
+      <c r="AT2" s="313"/>
       <c r="AU2" s="84"/>
       <c r="AV2" s="151"/>
       <c r="BB2" s="7"/>
-      <c r="BC2" s="316" t="s">
+      <c r="BC2" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" s="317"/>
-      <c r="BE2" s="317"/>
-      <c r="BF2" s="317"/>
-      <c r="BG2" s="317"/>
-      <c r="BH2" s="317"/>
-      <c r="BI2" s="317"/>
-      <c r="BJ2" s="317"/>
-      <c r="BK2" s="317"/>
+      <c r="BD2" s="313"/>
+      <c r="BE2" s="313"/>
+      <c r="BF2" s="313"/>
+      <c r="BG2" s="313"/>
+      <c r="BH2" s="313"/>
+      <c r="BI2" s="313"/>
+      <c r="BJ2" s="313"/>
+      <c r="BK2" s="313"/>
       <c r="BL2" s="84"/>
       <c r="BM2" s="151"/>
       <c r="BQ2" s="7"/>
-      <c r="BR2" s="316" t="s">
+      <c r="BR2" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="BS2" s="317"/>
-      <c r="BT2" s="317"/>
-      <c r="BU2" s="317"/>
-      <c r="BV2" s="317"/>
-      <c r="BW2" s="317"/>
-      <c r="BX2" s="317"/>
-      <c r="BY2" s="317"/>
-      <c r="BZ2" s="317"/>
+      <c r="BS2" s="313"/>
+      <c r="BT2" s="313"/>
+      <c r="BU2" s="313"/>
+      <c r="BV2" s="313"/>
+      <c r="BW2" s="313"/>
+      <c r="BX2" s="313"/>
+      <c r="BY2" s="313"/>
+      <c r="BZ2" s="313"/>
       <c r="CA2" s="84"/>
       <c r="CB2" s="151"/>
     </row>
     <row r="3" spans="2:81" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="320"/>
-      <c r="K3" s="321"/>
+      <c r="J3" s="316"/>
+      <c r="K3" s="317"/>
       <c r="L3" s="326"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="320"/>
-      <c r="AA3" s="321"/>
+      <c r="Z3" s="316"/>
+      <c r="AA3" s="317"/>
       <c r="AB3" s="326"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="1"/>
-      <c r="AR3" s="320"/>
-      <c r="AS3" s="321"/>
+      <c r="AR3" s="316"/>
+      <c r="AS3" s="317"/>
       <c r="AT3" s="326"/>
       <c r="AU3" s="68"/>
       <c r="AV3" s="152"/>
       <c r="BB3" s="7"/>
       <c r="BC3" s="1"/>
-      <c r="BI3" s="320"/>
-      <c r="BJ3" s="321"/>
+      <c r="BI3" s="316"/>
+      <c r="BJ3" s="317"/>
       <c r="BK3" s="326"/>
       <c r="BL3" s="68"/>
       <c r="BM3" s="152"/>
       <c r="BQ3" s="7"/>
       <c r="BR3" s="1"/>
-      <c r="BX3" s="320"/>
-      <c r="BY3" s="321"/>
-      <c r="BZ3" s="322"/>
+      <c r="BX3" s="316"/>
+      <c r="BY3" s="317"/>
+      <c r="BZ3" s="318"/>
       <c r="CA3" s="68"/>
       <c r="CB3" s="152"/>
     </row>
@@ -29398,11 +29494,11 @@
     <row r="12" spans="2:81" s="80" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="235"/>
       <c r="D12" s="129"/>
-      <c r="E12" s="330" t="s">
+      <c r="E12" s="341" t="s">
         <v>414</v>
       </c>
-      <c r="F12" s="331"/>
-      <c r="G12" s="332"/>
+      <c r="F12" s="342"/>
+      <c r="G12" s="343"/>
       <c r="H12" s="78"/>
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
@@ -29412,11 +29508,11 @@
       <c r="N12" s="209"/>
       <c r="S12" s="235"/>
       <c r="T12" s="129"/>
-      <c r="U12" s="341" t="s">
+      <c r="U12" s="331" t="s">
         <v>342</v>
       </c>
-      <c r="V12" s="342"/>
-      <c r="W12" s="343"/>
+      <c r="V12" s="332"/>
+      <c r="W12" s="333"/>
       <c r="X12" s="78"/>
       <c r="Y12" s="78"/>
       <c r="Z12" s="78"/>
@@ -30006,7 +30102,7 @@
       <c r="I22" s="324"/>
       <c r="J22" s="324"/>
       <c r="K22" s="324"/>
-      <c r="L22" s="333"/>
+      <c r="L22" s="330"/>
       <c r="M22" s="262"/>
       <c r="N22" s="151"/>
       <c r="S22" s="7"/>
@@ -30020,7 +30116,7 @@
       <c r="Y22" s="324"/>
       <c r="Z22" s="324"/>
       <c r="AA22" s="324"/>
-      <c r="AB22" s="333"/>
+      <c r="AB22" s="330"/>
       <c r="AC22" s="262"/>
       <c r="AD22" s="151"/>
       <c r="AK22" s="7"/>
@@ -30034,7 +30130,7 @@
       <c r="AQ22" s="324"/>
       <c r="AR22" s="324"/>
       <c r="AS22" s="324"/>
-      <c r="AT22" s="333"/>
+      <c r="AT22" s="330"/>
       <c r="AU22" s="171"/>
       <c r="AV22" s="151"/>
       <c r="BB22" s="7"/>
@@ -30048,7 +30144,7 @@
       <c r="BH22" s="324"/>
       <c r="BI22" s="324"/>
       <c r="BJ22" s="324"/>
-      <c r="BK22" s="333"/>
+      <c r="BK22" s="330"/>
       <c r="BL22" s="171"/>
       <c r="BM22" s="151"/>
       <c r="BQ22" s="7"/>
@@ -30097,9 +30193,9 @@
       <c r="BM23" s="152"/>
       <c r="BQ23" s="7"/>
       <c r="BR23" s="1"/>
-      <c r="BX23" s="320"/>
-      <c r="BY23" s="321"/>
-      <c r="BZ23" s="322"/>
+      <c r="BX23" s="316"/>
+      <c r="BY23" s="317"/>
+      <c r="BZ23" s="318"/>
       <c r="CA23" s="68"/>
       <c r="CB23" s="152"/>
     </row>
@@ -31432,34 +31528,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="BR2:BZ2"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BR22:BZ22"/>
+    <mergeCell ref="BX23:BZ23"/>
+    <mergeCell ref="BC2:BK2"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BU28:BX28"/>
+    <mergeCell ref="BC22:BK22"/>
+    <mergeCell ref="BU7:BX7"/>
+    <mergeCell ref="BF10:BI10"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AL22:AT22"/>
+    <mergeCell ref="AO30:AR30"/>
     <mergeCell ref="T2:AB2"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="W10:Z10"/>
     <mergeCell ref="T22:AB22"/>
     <mergeCell ref="W30:Z30"/>
     <mergeCell ref="U12:W12"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AL22:AT22"/>
-    <mergeCell ref="AO30:AR30"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BU28:BX28"/>
-    <mergeCell ref="BC22:BK22"/>
-    <mergeCell ref="BU7:BX7"/>
-    <mergeCell ref="BF10:BI10"/>
-    <mergeCell ref="BR2:BZ2"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="BR22:BZ22"/>
-    <mergeCell ref="BX23:BZ23"/>
-    <mergeCell ref="BC2:BK2"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="D22:L22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="447">
   <si>
     <t>FECHA</t>
   </si>
@@ -1430,6 +1430,42 @@
   <si>
     <t>Chile Guajillo--Pulla-Ancho--Canela--plancha mixiote--Jamaica</t>
   </si>
+  <si>
+    <t>del   08 - al  13  Enero    2024</t>
+  </si>
+  <si>
+    <t>Del 08  al  13-Ene-24.,</t>
+  </si>
+  <si>
+    <t>Pechuga pollo--Salchichas--Mole--Jamon--POLLO--Quesos--Tostadas--Chicharron--Tocino--Brochetas-</t>
+  </si>
+  <si>
+    <t>Chile morron--Champiñones--Limon</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Rajas--Chipotles--Yogurt Galletas</t>
+  </si>
+  <si>
+    <t>Pechuga de pollo-Pollo-Jamon-Quesos-Tostadas--Salchichas-Chicharron--Crema--Brochetas--Tocino-</t>
+  </si>
+  <si>
+    <t>Chile morron--Champiñones--Jitomate--Calabaza--Zanahoria--Chayote--Ejote--Chicharo--Tomate--Serrano--Tampico--Ajo--Papa-Limon--</t>
+  </si>
+  <si>
+    <t>Papaya--Sandia --Guayaba--Manzana</t>
+  </si>
+  <si>
+    <t>Brocoli--Cilantro--Tomillo-Laurel--Oregano--Epazotte--The--Hojas de aguacate--Romana</t>
+  </si>
+  <si>
+    <t>Chile Guajillo--Pulla--Costeño--Ancho--Comino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantequilla--Crema--Mayonesa--Chipotles--Rajas-Catsum--Elote---Mostaza--Leche--Italpasta--Yogurt--desengrasante--Galletas </t>
+  </si>
 </sst>
 </file>
 
@@ -1439,7 +1475,7 @@
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1621,6 +1657,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1714,7 +1758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -2567,12 +2611,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3343,6 +3435,9 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3359,6 +3454,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3382,18 +3489,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3415,17 +3510,17 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="21" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3448,14 +3543,14 @@
     <xf numFmtId="44" fontId="4" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3472,6 +3567,42 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3481,10 +3612,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FF99FF66"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFCC99FF"/>
@@ -3832,53 +3963,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="312" t="s">
+      <c r="C1" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
       <c r="L1" s="127" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="133"/>
       <c r="N1" s="81"/>
-      <c r="O1" s="323" t="s">
+      <c r="O1" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
-      <c r="R1" s="324"/>
-      <c r="S1" s="324"/>
-      <c r="T1" s="324"/>
-      <c r="U1" s="324"/>
-      <c r="V1" s="324"/>
-      <c r="W1" s="324"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
+      <c r="R1" s="325"/>
+      <c r="S1" s="325"/>
+      <c r="T1" s="325"/>
+      <c r="U1" s="325"/>
+      <c r="V1" s="325"/>
+      <c r="W1" s="325"/>
       <c r="X1" s="128" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="316" t="s">
+      <c r="I2" s="321" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="317"/>
-      <c r="K2" s="318"/>
+      <c r="J2" s="322"/>
+      <c r="K2" s="323"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
       <c r="P2"/>
-      <c r="V2" s="316" t="s">
+      <c r="V2" s="321" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="317"/>
-      <c r="X2" s="318"/>
+      <c r="W2" s="322"/>
+      <c r="X2" s="323"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -4537,12 +4668,12 @@
     <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="306">
+      <c r="F20" s="307">
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
         <v>14572.5</v>
       </c>
-      <c r="G20" s="319"/>
-      <c r="H20" s="320"/>
+      <c r="G20" s="313"/>
+      <c r="H20" s="314"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -4553,12 +4684,12 @@
       <c r="P20"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="309">
+      <c r="S20" s="310">
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>21274</v>
       </c>
-      <c r="T20" s="321"/>
-      <c r="U20" s="322"/>
+      <c r="T20" s="315"/>
+      <c r="U20" s="316"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -4678,34 +4809,34 @@
     <row r="1" spans="2:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="126" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="122"/>
-      <c r="C2" s="344" t="s">
+      <c r="C2" s="345" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="345"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
       <c r="L2" s="123"/>
       <c r="M2" s="124"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
-      <c r="P2" s="346" t="s">
+      <c r="P2" s="347" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="347"/>
-      <c r="R2" s="347"/>
-      <c r="S2" s="347"/>
-      <c r="T2" s="347"/>
-      <c r="U2" s="347"/>
-      <c r="V2" s="347"/>
-      <c r="W2" s="347"/>
-      <c r="X2" s="347"/>
-      <c r="Y2" s="347"/>
-      <c r="Z2" s="348"/>
+      <c r="Q2" s="348"/>
+      <c r="R2" s="348"/>
+      <c r="S2" s="348"/>
+      <c r="T2" s="348"/>
+      <c r="U2" s="348"/>
+      <c r="V2" s="348"/>
+      <c r="W2" s="348"/>
+      <c r="X2" s="348"/>
+      <c r="Y2" s="348"/>
+      <c r="Z2" s="349"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="37"/>
@@ -5656,12 +5787,12 @@
     <row r="19" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="306">
+      <c r="F19" s="307">
         <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
         <v>50513</v>
       </c>
-      <c r="G19" s="319"/>
-      <c r="H19" s="320"/>
+      <c r="G19" s="313"/>
+      <c r="H19" s="314"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -5671,12 +5802,12 @@
       <c r="O19" s="74"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="309">
+      <c r="T19" s="310">
         <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
         <v>78100</v>
       </c>
-      <c r="U19" s="321"/>
-      <c r="V19" s="322"/>
+      <c r="U19" s="315"/>
+      <c r="V19" s="316"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -5811,32 +5942,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="317" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="323" t="s">
+      <c r="M2" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="324"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="324"/>
-      <c r="S2" s="324"/>
-      <c r="T2" s="324"/>
-      <c r="U2" s="324"/>
-      <c r="V2" s="324"/>
-      <c r="W2" s="330"/>
+      <c r="N2" s="325"/>
+      <c r="O2" s="325"/>
+      <c r="P2" s="325"/>
+      <c r="Q2" s="325"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="325"/>
+      <c r="T2" s="325"/>
+      <c r="U2" s="325"/>
+      <c r="V2" s="325"/>
+      <c r="W2" s="334"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -7095,12 +7226,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="306">
+      <c r="E30" s="307">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="319"/>
-      <c r="G30" s="320"/>
+      <c r="F30" s="313"/>
+      <c r="G30" s="314"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -7108,12 +7239,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="309">
+      <c r="Q30" s="310">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="321"/>
-      <c r="S30" s="322"/>
+      <c r="R30" s="315"/>
+      <c r="S30" s="316"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -7224,10 +7355,13 @@
   <sheetPr>
     <tabColor rgb="FF00FFFF"/>
   </sheetPr>
-  <dimension ref="B1:AA21"/>
+  <dimension ref="B1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7238,65 +7372,68 @@
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" customWidth="1"/>
     <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="275" t="s">
+      <c r="C2" s="350" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="351"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
       <c r="L2" s="128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="276" t="s">
+      <c r="O2" s="356" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="287"/>
-      <c r="Q2" s="287"/>
-      <c r="R2" s="287"/>
-      <c r="S2" s="287"/>
-      <c r="T2" s="287"/>
-      <c r="U2" s="287"/>
-      <c r="V2" s="287"/>
-      <c r="W2" s="287"/>
+      <c r="P2" s="357"/>
+      <c r="Q2" s="357"/>
+      <c r="R2" s="357"/>
+      <c r="S2" s="357"/>
+      <c r="T2" s="357"/>
+      <c r="U2" s="357"/>
+      <c r="V2" s="357"/>
+      <c r="W2" s="306"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
-        <v># 01</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v># 02</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="288" t="s">
-        <v>420</v>
-      </c>
-      <c r="J3" s="289"/>
-      <c r="K3" s="290"/>
+      <c r="H3" s="354" t="s">
+        <v>435</v>
+      </c>
+      <c r="I3" s="354"/>
+      <c r="J3" s="354"/>
+      <c r="K3" s="355"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="288" t="str">
-        <f>I3</f>
-        <v>del   02 - al  06  Enero    2024</v>
-      </c>
-      <c r="W3" s="289"/>
-      <c r="X3" s="290"/>
+      <c r="U3" s="359" t="str">
+        <f>H3</f>
+        <v>del   08 - al  13  Enero    2024</v>
+      </c>
+      <c r="V3" s="359"/>
+      <c r="W3" s="359"/>
+      <c r="X3" s="360"/>
     </row>
     <row r="4" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -7317,7 +7454,7 @@
       <c r="G4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="352" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="184" t="s">
@@ -7326,7 +7463,7 @@
       <c r="J4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="181" t="s">
+      <c r="K4" s="353" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="99" t="s">
@@ -7352,10 +7489,10 @@
       <c r="T4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="137" t="s">
+      <c r="U4" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="141" t="s">
+      <c r="V4" s="358" t="s">
         <v>25</v>
       </c>
       <c r="W4" s="136" t="s">
@@ -7367,10 +7504,10 @@
     </row>
     <row r="5" spans="2:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C5" s="234" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -7380,17 +7517,17 @@
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
       <c r="K5" s="72">
-        <f>1654+1169+1916</f>
-        <v>4739</v>
+        <f>1805+372+385+593+2198</f>
+        <v>5353</v>
       </c>
       <c r="L5" s="71"/>
       <c r="M5" s="131"/>
       <c r="N5" s="74"/>
       <c r="O5" s="93" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P5" s="234" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="283"/>
       <c r="R5" s="283"/>
@@ -7399,9 +7536,9 @@
       <c r="U5" s="283"/>
       <c r="V5" s="283"/>
       <c r="W5" s="283"/>
-      <c r="X5" s="72">
-        <f>2653+2376+1663</f>
-        <v>6692</v>
+      <c r="X5" s="104">
+        <f>2968+408+1476+669+2750</f>
+        <v>8271</v>
       </c>
       <c r="AA5" t="s">
         <v>26</v>
@@ -7409,16 +7546,16 @@
     </row>
     <row r="6" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67">
-        <f>2005+400</f>
-        <v>2405</v>
+        <f>665+24</f>
+        <v>689</v>
       </c>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
@@ -7429,15 +7566,16 @@
       <c r="M6" s="131"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="Q6" s="283"/>
       <c r="R6" s="283"/>
       <c r="S6" s="283">
-        <v>4495</v>
+        <f>1064+5480</f>
+        <v>6544</v>
       </c>
       <c r="T6" s="283"/>
       <c r="U6" s="283"/>
@@ -7447,17 +7585,17 @@
     </row>
     <row r="7" spans="2:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="67"/>
+        <v>439</v>
+      </c>
+      <c r="D7" s="67">
+        <v>193</v>
+      </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
-      <c r="G7" s="67">
-        <v>82</v>
-      </c>
+      <c r="G7" s="67"/>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="67"/>
@@ -7466,14 +7604,14 @@
       <c r="M7" s="131"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="Q7" s="283">
-        <f>149+280+180+150</f>
-        <v>759</v>
+        <f>188+155+128+220+266</f>
+        <v>957</v>
       </c>
       <c r="R7" s="283"/>
       <c r="S7" s="283"/>
@@ -7483,38 +7621,39 @@
       <c r="W7" s="283"/>
       <c r="X7" s="67"/>
     </row>
-    <row r="8" spans="2:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" ht="51" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>424</v>
-      </c>
-      <c r="D8" s="67">
-        <f>70+119+260+44+280+140+210</f>
-        <v>1123</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D8" s="67"/>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="J8" s="67">
+        <f>256+88+50</f>
+        <v>394</v>
+      </c>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
       <c r="M8" s="131"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P8" s="96" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="283"/>
       <c r="R8" s="283"/>
       <c r="S8" s="283"/>
       <c r="T8" s="283">
-        <v>85</v>
+        <f>164+80</f>
+        <v>244</v>
       </c>
       <c r="U8" s="283"/>
       <c r="V8" s="283"/>
@@ -7523,32 +7662,35 @@
     </row>
     <row r="9" spans="2:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C9" s="239" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67">
-        <v>237</v>
-      </c>
+      <c r="H9" s="67">
+        <f>51+85+102+85+119</f>
+        <v>442</v>
+      </c>
+      <c r="I9" s="67"/>
       <c r="J9" s="67"/>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P9" s="95" t="s">
-        <v>4</v>
+        <v>445</v>
       </c>
       <c r="Q9" s="283"/>
-      <c r="R9" s="283"/>
+      <c r="R9" s="283">
+        <v>748</v>
+      </c>
       <c r="S9" s="283"/>
       <c r="T9" s="283"/>
       <c r="U9" s="283"/>
@@ -7559,55 +7701,48 @@
     </row>
     <row r="10" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C10" s="277" t="s">
-        <v>426</v>
+        <v>239</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="H10" s="67">
+        <f>385+330+433</f>
+        <v>1148</v>
+      </c>
       <c r="I10" s="67"/>
-      <c r="J10" s="67">
-        <f>630+155.5+69</f>
-        <v>854.5</v>
-      </c>
+      <c r="J10" s="67"/>
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="131"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P10" s="268" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="Q10" s="283"/>
-      <c r="R10" s="283">
-        <f>1730.5+300</f>
-        <v>2030.5</v>
-      </c>
+      <c r="R10" s="283"/>
       <c r="S10" s="283"/>
       <c r="T10" s="283"/>
       <c r="U10" s="283"/>
       <c r="V10" s="283"/>
-      <c r="W10" s="283"/>
-      <c r="X10" s="255"/>
-    </row>
-    <row r="11" spans="2:27" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
-        <v>421</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>427</v>
-      </c>
+      <c r="W10" s="283">
+        <f>167+216+631+741.5+150+175.5+63</f>
+        <v>2144</v>
+      </c>
+      <c r="X10" s="67"/>
+    </row>
+    <row r="11" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="93"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="67"/>
-      <c r="E11" s="67">
-        <f>76+150</f>
-        <v>226</v>
-      </c>
+      <c r="E11" s="67"/>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
@@ -7618,41 +7753,31 @@
       <c r="M11" s="131"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>428</v>
-      </c>
-      <c r="P11" s="260" t="s">
-        <v>433</v>
+        <v>436</v>
+      </c>
+      <c r="P11" s="195" t="s">
+        <v>140</v>
       </c>
       <c r="Q11" s="283"/>
       <c r="R11" s="283"/>
       <c r="S11" s="283"/>
       <c r="T11" s="283"/>
       <c r="U11" s="283"/>
-      <c r="V11" s="283"/>
-      <c r="W11" s="283">
-        <f>1170+216+1369</f>
-        <v>2755</v>
-      </c>
+      <c r="V11" s="283">
+        <f>660+660+869+2153</f>
+        <v>4342</v>
+      </c>
+      <c r="W11" s="283"/>
       <c r="X11" s="67"/>
-      <c r="Y11" s="284" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="12" spans="2:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
-        <v>421</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>239</v>
-      </c>
+      <c r="B12" s="93"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
-      <c r="H12" s="67">
-        <f>484+462</f>
-        <v>946</v>
-      </c>
+      <c r="H12" s="67"/>
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
       <c r="K12" s="67"/>
@@ -7660,10 +7785,10 @@
       <c r="M12" s="131"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P12" s="195" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="283"/>
       <c r="R12" s="283"/>
@@ -7671,59 +7796,41 @@
       <c r="T12" s="283"/>
       <c r="U12" s="283"/>
       <c r="V12" s="283">
-        <f>462+880+3538</f>
-        <v>4880</v>
+        <f>136+323+204+204+170</f>
+        <v>1037</v>
       </c>
       <c r="W12" s="283"/>
       <c r="X12" s="67"/>
     </row>
     <row r="13" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="93" t="s">
-        <v>421</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>96</v>
-      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
-      <c r="H13" s="67">
-        <f>51+85+68+119</f>
-        <v>323</v>
-      </c>
+      <c r="H13" s="67"/>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
       <c r="L13" s="67"/>
       <c r="M13" s="131"/>
       <c r="N13" s="74"/>
-      <c r="O13" s="93" t="s">
-        <v>428</v>
-      </c>
-      <c r="P13" s="192" t="s">
-        <v>217</v>
-      </c>
+      <c r="O13" s="93"/>
+      <c r="P13" s="192"/>
       <c r="Q13" s="283"/>
       <c r="R13" s="283"/>
       <c r="S13" s="283"/>
       <c r="T13" s="283"/>
       <c r="U13" s="283"/>
-      <c r="V13" s="283">
-        <f>136+204+204+153</f>
-        <v>697</v>
-      </c>
+      <c r="V13" s="283"/>
       <c r="W13" s="283"/>
       <c r="X13" s="67"/>
       <c r="Y13" s="130"/>
     </row>
     <row r="14" spans="2:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="93" t="s">
-        <v>421</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>146</v>
-      </c>
+      <c r="B14" s="93"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
@@ -7732,14 +7839,10 @@
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
-      <c r="L14" s="67">
-        <v>500</v>
-      </c>
+      <c r="L14" s="67"/>
       <c r="M14" s="131"/>
       <c r="N14" s="74"/>
-      <c r="O14" s="93" t="s">
-        <v>428</v>
-      </c>
+      <c r="O14" s="93"/>
       <c r="P14" s="195"/>
       <c r="Q14" s="283"/>
       <c r="R14" s="283"/>
@@ -7749,12 +7852,12 @@
       <c r="V14" s="283"/>
       <c r="W14" s="283"/>
       <c r="X14" s="67"/>
-      <c r="Y14" s="269"/>
+      <c r="Y14" s="361" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="15" spans="2:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="93" t="s">
-        <v>421</v>
-      </c>
+      <c r="B15" s="93"/>
       <c r="C15" s="292" t="s">
         <v>370</v>
       </c>
@@ -7779,6 +7882,7 @@
       <c r="V15" s="72"/>
       <c r="W15" s="72"/>
       <c r="X15" s="67"/>
+      <c r="Y15" s="361"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="93"/>
@@ -7864,39 +7968,39 @@
       </c>
       <c r="D19" s="30">
         <f>SUM(D5:D18)</f>
-        <v>1123</v>
+        <v>193</v>
       </c>
       <c r="E19" s="30">
         <f t="shared" ref="E19:L19" si="0">SUM(E5:E18)</f>
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>2405</v>
+        <v>689</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" si="0"/>
-        <v>1269</v>
+        <v>1590</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" si="0"/>
-        <v>854.5</v>
+        <v>394</v>
       </c>
       <c r="K19" s="30">
         <f t="shared" si="0"/>
-        <v>4739</v>
+        <v>5353</v>
       </c>
       <c r="L19" s="30">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M19" s="132"/>
       <c r="N19" s="74"/>
@@ -7906,19 +8010,19 @@
       </c>
       <c r="Q19" s="21">
         <f t="shared" ref="Q19:X19" si="1">SUM(Q5:Q18)</f>
-        <v>759</v>
+        <v>957</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" si="1"/>
-        <v>2030.5</v>
+        <v>748</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="1"/>
-        <v>4495</v>
+        <v>6544</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="U19" s="21">
         <f t="shared" si="1"/>
@@ -7926,15 +8030,15 @@
       </c>
       <c r="V19" s="21">
         <f t="shared" si="1"/>
-        <v>5577</v>
+        <v>5379</v>
       </c>
       <c r="W19" s="21">
         <f t="shared" si="1"/>
-        <v>2755</v>
+        <v>2144</v>
       </c>
       <c r="X19" s="21">
         <f t="shared" si="1"/>
-        <v>6692</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7966,15 +8070,15 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="306">
+      <c r="F21" s="307">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
-        <v>11435.5</v>
-      </c>
-      <c r="G21" s="307"/>
-      <c r="H21" s="308"/>
+        <v>8219</v>
+      </c>
+      <c r="G21" s="308"/>
+      <c r="H21" s="309"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5">
-        <v>11435.5</v>
+        <v>8219</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="71"/>
@@ -7983,27 +8087,785 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="309">
+      <c r="S21" s="310">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
-        <v>22393.5</v>
-      </c>
-      <c r="T21" s="310"/>
-      <c r="U21" s="311"/>
+        <v>24287</v>
+      </c>
+      <c r="T21" s="311"/>
+      <c r="U21" s="312"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5">
+        <v>24287</v>
+      </c>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="29" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="7"/>
+      <c r="C30" s="275" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="286"/>
+      <c r="E30" s="286"/>
+      <c r="F30" s="286"/>
+      <c r="G30" s="286"/>
+      <c r="H30" s="286"/>
+      <c r="I30" s="286"/>
+      <c r="J30" s="286"/>
+      <c r="K30" s="286"/>
+      <c r="L30" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="133"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="276" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="287"/>
+      <c r="Q30" s="287"/>
+      <c r="R30" s="287"/>
+      <c r="S30" s="287"/>
+      <c r="T30" s="287"/>
+      <c r="U30" s="287"/>
+      <c r="V30" s="287"/>
+      <c r="W30" s="287"/>
+      <c r="X30" s="190" t="str">
+        <f>L30</f>
+        <v># 01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="1"/>
+      <c r="I31" s="288" t="s">
+        <v>420</v>
+      </c>
+      <c r="J31" s="289"/>
+      <c r="K31" s="290"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="7"/>
+      <c r="V31" s="288" t="str">
+        <f>I31</f>
+        <v>del   02 - al  06  Enero    2024</v>
+      </c>
+      <c r="W31" s="289"/>
+      <c r="X31" s="290"/>
+    </row>
+    <row r="32" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="181" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="135"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T32" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W32" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C33" s="234" t="s">
+        <v>422</v>
+      </c>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72">
+        <f>1654+1169+1916</f>
+        <v>4739</v>
+      </c>
+      <c r="L33" s="71"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P33" s="234" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q33" s="283"/>
+      <c r="R33" s="283"/>
+      <c r="S33" s="283"/>
+      <c r="T33" s="283"/>
+      <c r="U33" s="283"/>
+      <c r="V33" s="283"/>
+      <c r="W33" s="283"/>
+      <c r="X33" s="72">
+        <f>2653+2376+1663</f>
+        <v>6692</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67">
+        <f>2005+400</f>
+        <v>2405</v>
+      </c>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P34" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q34" s="283"/>
+      <c r="R34" s="283"/>
+      <c r="S34" s="283">
+        <v>4495</v>
+      </c>
+      <c r="T34" s="283"/>
+      <c r="U34" s="283"/>
+      <c r="V34" s="283"/>
+      <c r="W34" s="283"/>
+      <c r="X34" s="67"/>
+    </row>
+    <row r="35" spans="2:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67">
+        <v>82</v>
+      </c>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P35" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q35" s="283">
+        <f>149+280+180+150</f>
+        <v>759</v>
+      </c>
+      <c r="R35" s="283"/>
+      <c r="S35" s="283"/>
+      <c r="T35" s="283"/>
+      <c r="U35" s="283"/>
+      <c r="V35" s="283"/>
+      <c r="W35" s="283"/>
+      <c r="X35" s="67"/>
+    </row>
+    <row r="36" spans="2:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C36" s="96" t="s">
+        <v>424</v>
+      </c>
+      <c r="D36" s="67">
+        <f>70+119+260+44+280+140+210</f>
+        <v>1123</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P36" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q36" s="283"/>
+      <c r="R36" s="283"/>
+      <c r="S36" s="283"/>
+      <c r="T36" s="283">
+        <v>85</v>
+      </c>
+      <c r="U36" s="283"/>
+      <c r="V36" s="283"/>
+      <c r="W36" s="283"/>
+      <c r="X36" s="67"/>
+    </row>
+    <row r="37" spans="2:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C37" s="239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67">
+        <v>237</v>
+      </c>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P37" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="283"/>
+      <c r="R37" s="283"/>
+      <c r="S37" s="283"/>
+      <c r="T37" s="283"/>
+      <c r="U37" s="283"/>
+      <c r="V37" s="283"/>
+      <c r="W37" s="283"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="242"/>
+    </row>
+    <row r="38" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C38" s="277" t="s">
+        <v>426</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67">
+        <f>630+155.5+69</f>
+        <v>854.5</v>
+      </c>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P38" s="268" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q38" s="283"/>
+      <c r="R38" s="283">
+        <f>1730.5+300</f>
+        <v>2030.5</v>
+      </c>
+      <c r="S38" s="283"/>
+      <c r="T38" s="283"/>
+      <c r="U38" s="283"/>
+      <c r="V38" s="283"/>
+      <c r="W38" s="283"/>
+      <c r="X38" s="255"/>
+    </row>
+    <row r="39" spans="2:27" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67">
+        <f>76+150</f>
+        <v>226</v>
+      </c>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P39" s="260" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q39" s="283"/>
+      <c r="R39" s="283"/>
+      <c r="S39" s="283"/>
+      <c r="T39" s="283"/>
+      <c r="U39" s="283"/>
+      <c r="V39" s="283"/>
+      <c r="W39" s="283">
+        <f>1170+216+1369</f>
+        <v>2755</v>
+      </c>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="284" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C40" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67">
+        <f>484+462</f>
+        <v>946</v>
+      </c>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P40" s="195" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q40" s="283"/>
+      <c r="R40" s="283"/>
+      <c r="S40" s="283"/>
+      <c r="T40" s="283"/>
+      <c r="U40" s="283"/>
+      <c r="V40" s="283">
+        <f>462+880+3538</f>
+        <v>4880</v>
+      </c>
+      <c r="W40" s="283"/>
+      <c r="X40" s="67"/>
+    </row>
+    <row r="41" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67">
+        <f>51+85+68+119</f>
+        <v>323</v>
+      </c>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P41" s="192" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q41" s="283"/>
+      <c r="R41" s="283"/>
+      <c r="S41" s="283"/>
+      <c r="T41" s="283"/>
+      <c r="U41" s="283"/>
+      <c r="V41" s="283">
+        <f>136+204+204+153</f>
+        <v>697</v>
+      </c>
+      <c r="W41" s="283"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="130"/>
+    </row>
+    <row r="42" spans="2:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67">
+        <v>500</v>
+      </c>
+      <c r="M42" s="131"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P42" s="195"/>
+      <c r="Q42" s="283"/>
+      <c r="R42" s="283"/>
+      <c r="S42" s="283"/>
+      <c r="T42" s="283"/>
+      <c r="U42" s="283"/>
+      <c r="V42" s="283"/>
+      <c r="W42" s="283"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="269"/>
+    </row>
+    <row r="43" spans="2:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C43" s="292" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="67"/>
+    </row>
+    <row r="44" spans="2:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="93"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="91"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="67"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="67"/>
+    </row>
+    <row r="45" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="93"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="67"/>
+    </row>
+    <row r="46" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="73">
+        <v>0</v>
+      </c>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+    </row>
+    <row r="47" spans="2:27" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="30">
+        <f>SUM(D33:D46)</f>
+        <v>1123</v>
+      </c>
+      <c r="E47" s="30">
+        <f t="shared" ref="E47:L47" si="2">SUM(E33:E46)</f>
+        <v>226</v>
+      </c>
+      <c r="F47" s="30">
+        <f t="shared" si="2"/>
+        <v>2405</v>
+      </c>
+      <c r="G47" s="30">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="H47" s="30">
+        <f t="shared" si="2"/>
+        <v>1269</v>
+      </c>
+      <c r="I47" s="30">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="J47" s="30">
+        <f t="shared" si="2"/>
+        <v>854.5</v>
+      </c>
+      <c r="K47" s="30">
+        <f t="shared" si="2"/>
+        <v>4739</v>
+      </c>
+      <c r="L47" s="30">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="M47" s="132"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="21">
+        <f t="shared" ref="Q47:X47" si="3">SUM(Q33:Q46)</f>
+        <v>759</v>
+      </c>
+      <c r="R47" s="21">
+        <f t="shared" si="3"/>
+        <v>2030.5</v>
+      </c>
+      <c r="S47" s="21">
+        <f t="shared" si="3"/>
+        <v>4495</v>
+      </c>
+      <c r="T47" s="21">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="U47" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="21">
+        <f t="shared" si="3"/>
+        <v>5577</v>
+      </c>
+      <c r="W47" s="21">
+        <f t="shared" si="3"/>
+        <v>2755</v>
+      </c>
+      <c r="X47" s="21">
+        <f t="shared" si="3"/>
+        <v>6692</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="7"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+    </row>
+    <row r="49" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="7"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="307">
+        <f>K47+J47+I47+H47+G47+F47+E47+D47+L47</f>
+        <v>11435.5</v>
+      </c>
+      <c r="G49" s="308"/>
+      <c r="H49" s="309"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5">
+        <v>11435.5</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="7"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="310">
+        <f>Q47+R47+S47+T47+U47+V47+W47+X47</f>
         <v>22393.5</v>
       </c>
-      <c r="X21" s="5"/>
+      <c r="T49" s="311"/>
+      <c r="U49" s="312"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5">
+        <v>22393.5</v>
+      </c>
+      <c r="X49" s="5"/>
     </row>
   </sheetData>
   <sortState ref="C12:C13">
     <sortCondition ref="C12:C13"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="S49:U49"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="U3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8764,12 +9626,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="306">
+      <c r="F21" s="307">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>19826.5</v>
       </c>
-      <c r="G21" s="307"/>
-      <c r="H21" s="308"/>
+      <c r="G21" s="308"/>
+      <c r="H21" s="309"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5">
         <v>19826.5</v>
@@ -8781,12 +9643,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="309">
+      <c r="S21" s="310">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>27619</v>
       </c>
-      <c r="T21" s="310"/>
-      <c r="U21" s="311"/>
+      <c r="T21" s="311"/>
+      <c r="U21" s="312"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5">
         <v>27619</v>
@@ -9524,12 +10386,12 @@
       <c r="C51" s="1"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="306">
+      <c r="F51" s="307">
         <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
         <v>17225</v>
       </c>
-      <c r="G51" s="307"/>
-      <c r="H51" s="308"/>
+      <c r="G51" s="308"/>
+      <c r="H51" s="309"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -9539,12 +10401,12 @@
       <c r="O51" s="7"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="309">
+      <c r="S51" s="310">
         <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
         <v>25006.5</v>
       </c>
-      <c r="T51" s="310"/>
-      <c r="U51" s="311"/>
+      <c r="T51" s="311"/>
+      <c r="U51" s="312"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -9579,33 +10441,33 @@
     <row r="62" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B63" s="7"/>
-      <c r="C63" s="312" t="s">
+      <c r="C63" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="313"/>
-      <c r="E63" s="313"/>
-      <c r="F63" s="313"/>
-      <c r="G63" s="313"/>
-      <c r="H63" s="313"/>
-      <c r="I63" s="313"/>
-      <c r="J63" s="313"/>
-      <c r="K63" s="313"/>
+      <c r="D63" s="318"/>
+      <c r="E63" s="318"/>
+      <c r="F63" s="318"/>
+      <c r="G63" s="318"/>
+      <c r="H63" s="318"/>
+      <c r="I63" s="318"/>
+      <c r="J63" s="318"/>
+      <c r="K63" s="318"/>
       <c r="L63" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M63" s="133"/>
       <c r="N63" s="81"/>
-      <c r="O63" s="314" t="s">
+      <c r="O63" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P63" s="315"/>
-      <c r="Q63" s="315"/>
-      <c r="R63" s="315"/>
-      <c r="S63" s="315"/>
-      <c r="T63" s="315"/>
-      <c r="U63" s="315"/>
-      <c r="V63" s="315"/>
-      <c r="W63" s="315"/>
+      <c r="P63" s="320"/>
+      <c r="Q63" s="320"/>
+      <c r="R63" s="320"/>
+      <c r="S63" s="320"/>
+      <c r="T63" s="320"/>
+      <c r="U63" s="320"/>
+      <c r="V63" s="320"/>
+      <c r="W63" s="320"/>
       <c r="X63" s="190" t="str">
         <f>L63</f>
         <v># 03</v>
@@ -9614,21 +10476,21 @@
     <row r="64" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="1"/>
-      <c r="I64" s="316" t="s">
+      <c r="I64" s="321" t="s">
         <v>379</v>
       </c>
-      <c r="J64" s="317"/>
-      <c r="K64" s="318"/>
+      <c r="J64" s="322"/>
+      <c r="K64" s="323"/>
       <c r="L64" s="68"/>
       <c r="M64" s="134"/>
       <c r="N64" s="74"/>
       <c r="O64" s="7"/>
-      <c r="V64" s="316" t="str">
+      <c r="V64" s="321" t="str">
         <f>I64</f>
         <v>del   09 - al  15  DICIEMBRE    2023</v>
       </c>
-      <c r="W64" s="317"/>
-      <c r="X64" s="318"/>
+      <c r="W64" s="322"/>
+      <c r="X64" s="323"/>
     </row>
     <row r="65" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
@@ -10298,12 +11160,12 @@
       <c r="C82" s="1"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="306">
+      <c r="F82" s="307">
         <f>K80+J80+I80+H80+G80+F80+E80+D80+L80</f>
         <v>13656.5</v>
       </c>
-      <c r="G82" s="319"/>
-      <c r="H82" s="320"/>
+      <c r="G82" s="313"/>
+      <c r="H82" s="314"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -10313,12 +11175,12 @@
       <c r="O82" s="7"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-      <c r="S82" s="309">
+      <c r="S82" s="310">
         <f>Q80+R80+S80+T80+U80+V80+W80+X80</f>
         <v>25696.5</v>
       </c>
-      <c r="T82" s="321"/>
-      <c r="U82" s="322"/>
+      <c r="T82" s="315"/>
+      <c r="U82" s="316"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
@@ -10353,33 +11215,33 @@
     <row r="93" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B94" s="7"/>
-      <c r="C94" s="312" t="s">
+      <c r="C94" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="313"/>
-      <c r="E94" s="313"/>
-      <c r="F94" s="313"/>
-      <c r="G94" s="313"/>
-      <c r="H94" s="313"/>
-      <c r="I94" s="313"/>
-      <c r="J94" s="313"/>
-      <c r="K94" s="313"/>
+      <c r="D94" s="318"/>
+      <c r="E94" s="318"/>
+      <c r="F94" s="318"/>
+      <c r="G94" s="318"/>
+      <c r="H94" s="318"/>
+      <c r="I94" s="318"/>
+      <c r="J94" s="318"/>
+      <c r="K94" s="318"/>
       <c r="L94" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M94" s="133"/>
       <c r="N94" s="81"/>
-      <c r="O94" s="314" t="s">
+      <c r="O94" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P94" s="315"/>
-      <c r="Q94" s="315"/>
-      <c r="R94" s="315"/>
-      <c r="S94" s="315"/>
-      <c r="T94" s="315"/>
-      <c r="U94" s="315"/>
-      <c r="V94" s="315"/>
-      <c r="W94" s="315"/>
+      <c r="P94" s="320"/>
+      <c r="Q94" s="320"/>
+      <c r="R94" s="320"/>
+      <c r="S94" s="320"/>
+      <c r="T94" s="320"/>
+      <c r="U94" s="320"/>
+      <c r="V94" s="320"/>
+      <c r="W94" s="320"/>
       <c r="X94" s="190" t="str">
         <f>L94</f>
         <v># 02</v>
@@ -10388,21 +11250,21 @@
     <row r="95" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="1"/>
-      <c r="I95" s="316" t="s">
+      <c r="I95" s="321" t="s">
         <v>349</v>
       </c>
-      <c r="J95" s="317"/>
-      <c r="K95" s="318"/>
+      <c r="J95" s="322"/>
+      <c r="K95" s="323"/>
       <c r="L95" s="68"/>
       <c r="M95" s="134"/>
       <c r="N95" s="74"/>
       <c r="O95" s="7"/>
-      <c r="V95" s="316" t="str">
+      <c r="V95" s="321" t="str">
         <f>I95</f>
         <v>del   02 - al  08  DICIEMBRE    2023</v>
       </c>
-      <c r="W95" s="317"/>
-      <c r="X95" s="318"/>
+      <c r="W95" s="322"/>
+      <c r="X95" s="323"/>
     </row>
     <row r="96" spans="1:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
@@ -11069,12 +11931,12 @@
       <c r="C113" s="1"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="306">
+      <c r="F113" s="307">
         <f>K111+J111+I111+H111+G111+F111+E111+D111+L111</f>
         <v>11793</v>
       </c>
-      <c r="G113" s="319"/>
-      <c r="H113" s="320"/>
+      <c r="G113" s="313"/>
+      <c r="H113" s="314"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -11084,12 +11946,12 @@
       <c r="O113" s="7"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
-      <c r="S113" s="309">
+      <c r="S113" s="310">
         <f>Q111+R111+S111+T111+U111+V111+W111+X111</f>
         <v>19258</v>
       </c>
-      <c r="T113" s="321"/>
-      <c r="U113" s="322"/>
+      <c r="T113" s="315"/>
+      <c r="U113" s="316"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
@@ -11129,33 +11991,33 @@
     <row r="124" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B125" s="7"/>
-      <c r="C125" s="312" t="s">
+      <c r="C125" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D125" s="313"/>
-      <c r="E125" s="313"/>
-      <c r="F125" s="313"/>
-      <c r="G125" s="313"/>
-      <c r="H125" s="313"/>
-      <c r="I125" s="313"/>
-      <c r="J125" s="313"/>
-      <c r="K125" s="313"/>
+      <c r="D125" s="318"/>
+      <c r="E125" s="318"/>
+      <c r="F125" s="318"/>
+      <c r="G125" s="318"/>
+      <c r="H125" s="318"/>
+      <c r="I125" s="318"/>
+      <c r="J125" s="318"/>
+      <c r="K125" s="318"/>
       <c r="L125" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M125" s="133"/>
       <c r="N125" s="81"/>
-      <c r="O125" s="314" t="s">
+      <c r="O125" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P125" s="315"/>
-      <c r="Q125" s="315"/>
-      <c r="R125" s="315"/>
-      <c r="S125" s="315"/>
-      <c r="T125" s="315"/>
-      <c r="U125" s="315"/>
-      <c r="V125" s="315"/>
-      <c r="W125" s="315"/>
+      <c r="P125" s="320"/>
+      <c r="Q125" s="320"/>
+      <c r="R125" s="320"/>
+      <c r="S125" s="320"/>
+      <c r="T125" s="320"/>
+      <c r="U125" s="320"/>
+      <c r="V125" s="320"/>
+      <c r="W125" s="320"/>
       <c r="X125" s="190" t="str">
         <f>L125</f>
         <v># 01</v>
@@ -11164,21 +12026,21 @@
     <row r="126" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="1"/>
-      <c r="I126" s="316" t="s">
+      <c r="I126" s="321" t="s">
         <v>347</v>
       </c>
-      <c r="J126" s="317"/>
-      <c r="K126" s="318"/>
+      <c r="J126" s="322"/>
+      <c r="K126" s="323"/>
       <c r="L126" s="68"/>
       <c r="M126" s="134"/>
       <c r="N126" s="74"/>
       <c r="O126" s="7"/>
-      <c r="V126" s="316" t="str">
+      <c r="V126" s="321" t="str">
         <f>I126</f>
         <v>del   - al  01  DICIEMBRE    2023</v>
       </c>
-      <c r="W126" s="317"/>
-      <c r="X126" s="318"/>
+      <c r="W126" s="322"/>
+      <c r="X126" s="323"/>
     </row>
     <row r="127" spans="1:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
@@ -11803,12 +12665,12 @@
       <c r="C144" s="1"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="306">
+      <c r="F144" s="307">
         <f>K142+J142+I142+H142+G142+F142+E142+D142+L142</f>
         <v>920</v>
       </c>
-      <c r="G144" s="319"/>
-      <c r="H144" s="320"/>
+      <c r="G144" s="313"/>
+      <c r="H144" s="314"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -11818,12 +12680,12 @@
       <c r="O144" s="7"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
-      <c r="S144" s="309">
+      <c r="S144" s="310">
         <f>Q142+R142+S142+T142+U142+V142+W142+X142</f>
         <v>4015</v>
       </c>
-      <c r="T144" s="321"/>
-      <c r="U144" s="322"/>
+      <c r="T144" s="315"/>
+      <c r="U144" s="316"/>
       <c r="V144" s="5"/>
       <c r="W144" s="5"/>
       <c r="X144" s="5"/>
@@ -11857,16 +12719,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="S144:U144"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="O94:W94"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="V95:X95"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="S113:U113"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="V126:X126"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
     <mergeCell ref="F51:H51"/>
@@ -11879,6 +12731,16 @@
     <mergeCell ref="V64:X64"/>
     <mergeCell ref="F82:H82"/>
     <mergeCell ref="S82:U82"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="S144:U144"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="O94:W94"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="V95:X95"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="S113:U113"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="V126:X126"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11914,33 +12776,33 @@
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
       <c r="L2" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="314" t="s">
+      <c r="O2" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="315"/>
-      <c r="S2" s="315"/>
-      <c r="T2" s="315"/>
-      <c r="U2" s="315"/>
-      <c r="V2" s="315"/>
-      <c r="W2" s="315"/>
+      <c r="P2" s="320"/>
+      <c r="Q2" s="320"/>
+      <c r="R2" s="320"/>
+      <c r="S2" s="320"/>
+      <c r="T2" s="320"/>
+      <c r="U2" s="320"/>
+      <c r="V2" s="320"/>
+      <c r="W2" s="320"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 05</v>
@@ -11949,21 +12811,21 @@
     <row r="3" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="316" t="s">
+      <c r="I3" s="321" t="s">
         <v>321</v>
       </c>
-      <c r="J3" s="317"/>
-      <c r="K3" s="318"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="323"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="316" t="str">
+      <c r="V3" s="321" t="str">
         <f>I3</f>
         <v>del   25- al  30   NOVIEMBRE  2023</v>
       </c>
-      <c r="W3" s="317"/>
-      <c r="X3" s="318"/>
+      <c r="W3" s="322"/>
+      <c r="X3" s="323"/>
     </row>
     <row r="4" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -12631,12 +13493,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="306">
+      <c r="F21" s="307">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>14252</v>
       </c>
-      <c r="G21" s="319"/>
-      <c r="H21" s="320"/>
+      <c r="G21" s="313"/>
+      <c r="H21" s="314"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -12646,12 +13508,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="309">
+      <c r="S21" s="310">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>26704</v>
       </c>
-      <c r="T21" s="321"/>
-      <c r="U21" s="322"/>
+      <c r="T21" s="315"/>
+      <c r="U21" s="316"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -12738,33 +13600,33 @@
     <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
-      <c r="C29" s="312" t="s">
+      <c r="C29" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="313"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="313"/>
-      <c r="G29" s="313"/>
-      <c r="H29" s="313"/>
-      <c r="I29" s="313"/>
-      <c r="J29" s="313"/>
-      <c r="K29" s="313"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="318"/>
+      <c r="F29" s="318"/>
+      <c r="G29" s="318"/>
+      <c r="H29" s="318"/>
+      <c r="I29" s="318"/>
+      <c r="J29" s="318"/>
+      <c r="K29" s="318"/>
       <c r="L29" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M29" s="133"/>
       <c r="N29" s="81"/>
-      <c r="O29" s="314" t="s">
+      <c r="O29" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="315"/>
-      <c r="Q29" s="315"/>
-      <c r="R29" s="315"/>
-      <c r="S29" s="315"/>
-      <c r="T29" s="315"/>
-      <c r="U29" s="315"/>
-      <c r="V29" s="315"/>
-      <c r="W29" s="315"/>
+      <c r="P29" s="320"/>
+      <c r="Q29" s="320"/>
+      <c r="R29" s="320"/>
+      <c r="S29" s="320"/>
+      <c r="T29" s="320"/>
+      <c r="U29" s="320"/>
+      <c r="V29" s="320"/>
+      <c r="W29" s="320"/>
       <c r="X29" s="190" t="str">
         <f>L29</f>
         <v># 05</v>
@@ -12773,21 +13635,21 @@
     <row r="30" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
-      <c r="I30" s="316" t="s">
+      <c r="I30" s="321" t="s">
         <v>321</v>
       </c>
-      <c r="J30" s="317"/>
-      <c r="K30" s="318"/>
+      <c r="J30" s="322"/>
+      <c r="K30" s="323"/>
       <c r="L30" s="68"/>
       <c r="M30" s="134"/>
       <c r="N30" s="74"/>
       <c r="O30" s="7"/>
-      <c r="V30" s="316" t="str">
+      <c r="V30" s="321" t="str">
         <f>I30</f>
         <v>del   25- al  30   NOVIEMBRE  2023</v>
       </c>
-      <c r="W30" s="317"/>
-      <c r="X30" s="318"/>
+      <c r="W30" s="322"/>
+      <c r="X30" s="323"/>
     </row>
     <row r="31" spans="1:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
@@ -13455,12 +14317,12 @@
       <c r="C48" s="1"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="306">
+      <c r="F48" s="307">
         <f>K46+J46+I46+H46+G46+F46+E46+D46+L46</f>
         <v>13752</v>
       </c>
-      <c r="G48" s="319"/>
-      <c r="H48" s="320"/>
+      <c r="G48" s="313"/>
+      <c r="H48" s="314"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -13470,12 +14332,12 @@
       <c r="O48" s="7"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="309">
+      <c r="S48" s="310">
         <f>Q46+R46+S46+T46+U46+V46+W46+X46</f>
         <v>22689</v>
       </c>
-      <c r="T48" s="321"/>
-      <c r="U48" s="322"/>
+      <c r="T48" s="315"/>
+      <c r="U48" s="316"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -13654,33 +14516,33 @@
     <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="312" t="s">
+      <c r="C60" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="313"/>
-      <c r="E60" s="313"/>
-      <c r="F60" s="313"/>
-      <c r="G60" s="313"/>
-      <c r="H60" s="313"/>
-      <c r="I60" s="313"/>
-      <c r="J60" s="313"/>
-      <c r="K60" s="313"/>
+      <c r="D60" s="318"/>
+      <c r="E60" s="318"/>
+      <c r="F60" s="318"/>
+      <c r="G60" s="318"/>
+      <c r="H60" s="318"/>
+      <c r="I60" s="318"/>
+      <c r="J60" s="318"/>
+      <c r="K60" s="318"/>
       <c r="L60" s="128" t="s">
         <v>88</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="81"/>
-      <c r="O60" s="314" t="s">
+      <c r="O60" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="315"/>
-      <c r="Q60" s="315"/>
-      <c r="R60" s="315"/>
-      <c r="S60" s="315"/>
-      <c r="T60" s="315"/>
-      <c r="U60" s="315"/>
-      <c r="V60" s="315"/>
-      <c r="W60" s="315"/>
+      <c r="P60" s="320"/>
+      <c r="Q60" s="320"/>
+      <c r="R60" s="320"/>
+      <c r="S60" s="320"/>
+      <c r="T60" s="320"/>
+      <c r="U60" s="320"/>
+      <c r="V60" s="320"/>
+      <c r="W60" s="320"/>
       <c r="X60" s="190" t="str">
         <f>L60</f>
         <v># 04</v>
@@ -13689,21 +14551,21 @@
     <row r="61" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="I61" s="316" t="s">
+      <c r="I61" s="321" t="s">
         <v>306</v>
       </c>
-      <c r="J61" s="317"/>
-      <c r="K61" s="318"/>
+      <c r="J61" s="322"/>
+      <c r="K61" s="323"/>
       <c r="L61" s="68"/>
       <c r="M61" s="134"/>
       <c r="N61" s="74"/>
       <c r="O61" s="7"/>
-      <c r="V61" s="316" t="str">
+      <c r="V61" s="321" t="str">
         <f>I61</f>
         <v>del   18- al  24   NOVIEMBRE  2023</v>
       </c>
-      <c r="W61" s="317"/>
-      <c r="X61" s="318"/>
+      <c r="W61" s="322"/>
+      <c r="X61" s="323"/>
     </row>
     <row r="62" spans="1:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
@@ -14369,12 +15231,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="306">
+      <c r="F79" s="307">
         <f>K77+J77+I77+H77+G77+F77+E77+D77+L77</f>
         <v>10727</v>
       </c>
-      <c r="G79" s="319"/>
-      <c r="H79" s="320"/>
+      <c r="G79" s="313"/>
+      <c r="H79" s="314"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -14384,12 +15246,12 @@
       <c r="O79" s="7"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="309">
+      <c r="S79" s="310">
         <f>Q77+R77+S77+T77+U77+V77+W77+X77</f>
         <v>17666</v>
       </c>
-      <c r="T79" s="321"/>
-      <c r="U79" s="322"/>
+      <c r="T79" s="315"/>
+      <c r="U79" s="316"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -14517,33 +15379,33 @@
     <row r="88" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B89" s="7"/>
-      <c r="C89" s="312" t="s">
+      <c r="C89" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="313"/>
-      <c r="E89" s="313"/>
-      <c r="F89" s="313"/>
-      <c r="G89" s="313"/>
-      <c r="H89" s="313"/>
-      <c r="I89" s="313"/>
-      <c r="J89" s="313"/>
-      <c r="K89" s="313"/>
+      <c r="D89" s="318"/>
+      <c r="E89" s="318"/>
+      <c r="F89" s="318"/>
+      <c r="G89" s="318"/>
+      <c r="H89" s="318"/>
+      <c r="I89" s="318"/>
+      <c r="J89" s="318"/>
+      <c r="K89" s="318"/>
       <c r="L89" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M89" s="133"/>
       <c r="N89" s="81"/>
-      <c r="O89" s="314" t="s">
+      <c r="O89" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P89" s="315"/>
-      <c r="Q89" s="315"/>
-      <c r="R89" s="315"/>
-      <c r="S89" s="315"/>
-      <c r="T89" s="315"/>
-      <c r="U89" s="315"/>
-      <c r="V89" s="315"/>
-      <c r="W89" s="315"/>
+      <c r="P89" s="320"/>
+      <c r="Q89" s="320"/>
+      <c r="R89" s="320"/>
+      <c r="S89" s="320"/>
+      <c r="T89" s="320"/>
+      <c r="U89" s="320"/>
+      <c r="V89" s="320"/>
+      <c r="W89" s="320"/>
       <c r="X89" s="190" t="str">
         <f>L89</f>
         <v># 03</v>
@@ -14552,21 +15414,21 @@
     <row r="90" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7"/>
       <c r="C90" s="1"/>
-      <c r="I90" s="316" t="s">
+      <c r="I90" s="321" t="s">
         <v>290</v>
       </c>
-      <c r="J90" s="317"/>
-      <c r="K90" s="318"/>
+      <c r="J90" s="322"/>
+      <c r="K90" s="323"/>
       <c r="L90" s="68"/>
       <c r="M90" s="134"/>
       <c r="N90" s="74"/>
       <c r="O90" s="7"/>
-      <c r="V90" s="316" t="str">
+      <c r="V90" s="321" t="str">
         <f>I90</f>
         <v>del   11- al  17   NOVIEMBRE  2023</v>
       </c>
-      <c r="W90" s="317"/>
-      <c r="X90" s="318"/>
+      <c r="W90" s="322"/>
+      <c r="X90" s="323"/>
     </row>
     <row r="91" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
@@ -15240,12 +16102,12 @@
       <c r="C108" s="1"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="306">
+      <c r="F108" s="307">
         <f>K106+J106+I106+H106+G106+F106+E106+D106+L106</f>
         <v>12113</v>
       </c>
-      <c r="G108" s="319"/>
-      <c r="H108" s="320"/>
+      <c r="G108" s="313"/>
+      <c r="H108" s="314"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -15255,12 +16117,12 @@
       <c r="O108" s="7"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
-      <c r="S108" s="309">
+      <c r="S108" s="310">
         <f>Q106+R106+S106+T106+U106+V106+W106+X106</f>
         <v>23360.5</v>
       </c>
-      <c r="T108" s="321"/>
-      <c r="U108" s="322"/>
+      <c r="T108" s="315"/>
+      <c r="U108" s="316"/>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
@@ -15292,33 +16154,33 @@
     <row r="119" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="7"/>
-      <c r="C120" s="312" t="s">
+      <c r="C120" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="313"/>
-      <c r="E120" s="313"/>
-      <c r="F120" s="313"/>
-      <c r="G120" s="313"/>
-      <c r="H120" s="313"/>
-      <c r="I120" s="313"/>
-      <c r="J120" s="313"/>
-      <c r="K120" s="313"/>
+      <c r="D120" s="318"/>
+      <c r="E120" s="318"/>
+      <c r="F120" s="318"/>
+      <c r="G120" s="318"/>
+      <c r="H120" s="318"/>
+      <c r="I120" s="318"/>
+      <c r="J120" s="318"/>
+      <c r="K120" s="318"/>
       <c r="L120" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M120" s="133"/>
       <c r="N120" s="81"/>
-      <c r="O120" s="314" t="s">
+      <c r="O120" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P120" s="315"/>
-      <c r="Q120" s="315"/>
-      <c r="R120" s="315"/>
-      <c r="S120" s="315"/>
-      <c r="T120" s="315"/>
-      <c r="U120" s="315"/>
-      <c r="V120" s="315"/>
-      <c r="W120" s="315"/>
+      <c r="P120" s="320"/>
+      <c r="Q120" s="320"/>
+      <c r="R120" s="320"/>
+      <c r="S120" s="320"/>
+      <c r="T120" s="320"/>
+      <c r="U120" s="320"/>
+      <c r="V120" s="320"/>
+      <c r="W120" s="320"/>
       <c r="X120" s="190" t="str">
         <f>L120</f>
         <v># 02</v>
@@ -15327,21 +16189,21 @@
     <row r="121" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
       <c r="C121" s="1"/>
-      <c r="I121" s="316" t="s">
+      <c r="I121" s="321" t="s">
         <v>275</v>
       </c>
-      <c r="J121" s="317"/>
-      <c r="K121" s="318"/>
+      <c r="J121" s="322"/>
+      <c r="K121" s="323"/>
       <c r="L121" s="68"/>
       <c r="M121" s="134"/>
       <c r="N121" s="74"/>
       <c r="O121" s="7"/>
-      <c r="V121" s="316" t="str">
+      <c r="V121" s="321" t="str">
         <f>I121</f>
         <v>del   04- al  10   NOVIEMBRE  2023</v>
       </c>
-      <c r="W121" s="317"/>
-      <c r="X121" s="318"/>
+      <c r="W121" s="322"/>
+      <c r="X121" s="323"/>
     </row>
     <row r="122" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
@@ -16007,12 +16869,12 @@
       <c r="C139" s="1"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="306">
+      <c r="F139" s="307">
         <f>K137+J137+I137+H137+G137+F137+E137+D137+L137</f>
         <v>12757</v>
       </c>
-      <c r="G139" s="319"/>
-      <c r="H139" s="320"/>
+      <c r="G139" s="313"/>
+      <c r="H139" s="314"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -16022,12 +16884,12 @@
       <c r="O139" s="7"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
-      <c r="S139" s="309">
+      <c r="S139" s="310">
         <f>Q137+R137+S137+T137+U137+V137+W137+X137</f>
         <v>21698</v>
       </c>
-      <c r="T139" s="321"/>
-      <c r="U139" s="322"/>
+      <c r="T139" s="315"/>
+      <c r="U139" s="316"/>
       <c r="V139" s="5"/>
       <c r="W139" s="5"/>
       <c r="X139" s="5"/>
@@ -16059,33 +16921,33 @@
     <row r="148" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="149" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B149" s="7"/>
-      <c r="C149" s="312" t="s">
+      <c r="C149" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D149" s="313"/>
-      <c r="E149" s="313"/>
-      <c r="F149" s="313"/>
-      <c r="G149" s="313"/>
-      <c r="H149" s="313"/>
-      <c r="I149" s="313"/>
-      <c r="J149" s="313"/>
-      <c r="K149" s="313"/>
+      <c r="D149" s="318"/>
+      <c r="E149" s="318"/>
+      <c r="F149" s="318"/>
+      <c r="G149" s="318"/>
+      <c r="H149" s="318"/>
+      <c r="I149" s="318"/>
+      <c r="J149" s="318"/>
+      <c r="K149" s="318"/>
       <c r="L149" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M149" s="133"/>
       <c r="N149" s="81"/>
-      <c r="O149" s="314" t="s">
+      <c r="O149" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P149" s="315"/>
-      <c r="Q149" s="315"/>
-      <c r="R149" s="315"/>
-      <c r="S149" s="315"/>
-      <c r="T149" s="315"/>
-      <c r="U149" s="315"/>
-      <c r="V149" s="315"/>
-      <c r="W149" s="315"/>
+      <c r="P149" s="320"/>
+      <c r="Q149" s="320"/>
+      <c r="R149" s="320"/>
+      <c r="S149" s="320"/>
+      <c r="T149" s="320"/>
+      <c r="U149" s="320"/>
+      <c r="V149" s="320"/>
+      <c r="W149" s="320"/>
       <c r="X149" s="190" t="str">
         <f>L149</f>
         <v># 01</v>
@@ -16094,21 +16956,21 @@
     <row r="150" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="1"/>
-      <c r="I150" s="316" t="s">
+      <c r="I150" s="321" t="s">
         <v>248</v>
       </c>
-      <c r="J150" s="317"/>
-      <c r="K150" s="318"/>
+      <c r="J150" s="322"/>
+      <c r="K150" s="323"/>
       <c r="L150" s="68"/>
       <c r="M150" s="134"/>
       <c r="N150" s="74"/>
       <c r="O150" s="7"/>
-      <c r="V150" s="316" t="str">
+      <c r="V150" s="321" t="str">
         <f>I150</f>
         <v>del   01- al  3   NOVIEMBRE  2023</v>
       </c>
-      <c r="W150" s="317"/>
-      <c r="X150" s="318"/>
+      <c r="W150" s="322"/>
+      <c r="X150" s="323"/>
     </row>
     <row r="151" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
@@ -16725,12 +17587,12 @@
       <c r="C168" s="1"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="306">
+      <c r="F168" s="307">
         <f>K166+J166+I166+H166+G166+F166+E166+D166+L166</f>
         <v>3455</v>
       </c>
-      <c r="G168" s="319"/>
-      <c r="H168" s="320"/>
+      <c r="G168" s="313"/>
+      <c r="H168" s="314"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
@@ -16740,12 +17602,12 @@
       <c r="O168" s="7"/>
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
-      <c r="S168" s="309">
+      <c r="S168" s="310">
         <f>Q166+R166+S166+T166+U166+V166+W166+X166</f>
         <v>8067.5</v>
       </c>
-      <c r="T168" s="321"/>
-      <c r="U168" s="322"/>
+      <c r="T168" s="315"/>
+      <c r="U168" s="316"/>
       <c r="V168" s="5"/>
       <c r="W168" s="5"/>
       <c r="X168" s="5"/>
@@ -16776,42 +17638,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="O29:W29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="C149:K149"/>
+    <mergeCell ref="O149:W149"/>
+    <mergeCell ref="I150:K150"/>
+    <mergeCell ref="V150:X150"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="S168:U168"/>
+    <mergeCell ref="C120:K120"/>
+    <mergeCell ref="O120:W120"/>
+    <mergeCell ref="I121:K121"/>
+    <mergeCell ref="V121:X121"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="S139:U139"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="O89:W89"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="S108:U108"/>
     <mergeCell ref="C60:K60"/>
     <mergeCell ref="O60:W60"/>
     <mergeCell ref="I61:K61"/>
     <mergeCell ref="V61:X61"/>
     <mergeCell ref="F79:H79"/>
     <mergeCell ref="S79:U79"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="O89:W89"/>
-    <mergeCell ref="I90:K90"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="S108:U108"/>
-    <mergeCell ref="C120:K120"/>
-    <mergeCell ref="O120:W120"/>
-    <mergeCell ref="I121:K121"/>
-    <mergeCell ref="V121:X121"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="S139:U139"/>
-    <mergeCell ref="C149:K149"/>
-    <mergeCell ref="O149:W149"/>
-    <mergeCell ref="I150:K150"/>
-    <mergeCell ref="V150:X150"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="S168:U168"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="O29:W29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16847,33 +17709,33 @@
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
       <c r="L2" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="314" t="s">
+      <c r="O2" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="315"/>
-      <c r="S2" s="315"/>
-      <c r="T2" s="315"/>
-      <c r="U2" s="315"/>
-      <c r="V2" s="315"/>
-      <c r="W2" s="315"/>
+      <c r="P2" s="320"/>
+      <c r="Q2" s="320"/>
+      <c r="R2" s="320"/>
+      <c r="S2" s="320"/>
+      <c r="T2" s="320"/>
+      <c r="U2" s="320"/>
+      <c r="V2" s="320"/>
+      <c r="W2" s="320"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 05</v>
@@ -16882,21 +17744,21 @@
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="316" t="s">
+      <c r="I3" s="321" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="317"/>
-      <c r="K3" s="318"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="323"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="316" t="str">
+      <c r="V3" s="321" t="str">
         <f>I3</f>
         <v>del       28--- al  31    OCTUBRE-2023</v>
       </c>
-      <c r="W3" s="317"/>
-      <c r="X3" s="318"/>
+      <c r="W3" s="322"/>
+      <c r="X3" s="323"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -17555,12 +18417,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="306">
+      <c r="F21" s="307">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>7829.5</v>
       </c>
-      <c r="G21" s="319"/>
-      <c r="H21" s="320"/>
+      <c r="G21" s="313"/>
+      <c r="H21" s="314"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -17570,12 +18432,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="309">
+      <c r="S21" s="310">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>9034</v>
       </c>
-      <c r="T21" s="321"/>
-      <c r="U21" s="322"/>
+      <c r="T21" s="315"/>
+      <c r="U21" s="316"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -17607,33 +18469,33 @@
     <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
-      <c r="C30" s="312" t="s">
+      <c r="C30" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="313"/>
-      <c r="E30" s="313"/>
-      <c r="F30" s="313"/>
-      <c r="G30" s="313"/>
-      <c r="H30" s="313"/>
-      <c r="I30" s="313"/>
-      <c r="J30" s="313"/>
-      <c r="K30" s="313"/>
+      <c r="D30" s="318"/>
+      <c r="E30" s="318"/>
+      <c r="F30" s="318"/>
+      <c r="G30" s="318"/>
+      <c r="H30" s="318"/>
+      <c r="I30" s="318"/>
+      <c r="J30" s="318"/>
+      <c r="K30" s="318"/>
       <c r="L30" s="128" t="s">
         <v>88</v>
       </c>
       <c r="M30" s="133"/>
       <c r="N30" s="81"/>
-      <c r="O30" s="314" t="s">
+      <c r="O30" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="315"/>
-      <c r="Q30" s="315"/>
-      <c r="R30" s="315"/>
-      <c r="S30" s="315"/>
-      <c r="T30" s="315"/>
-      <c r="U30" s="315"/>
-      <c r="V30" s="315"/>
-      <c r="W30" s="315"/>
+      <c r="P30" s="320"/>
+      <c r="Q30" s="320"/>
+      <c r="R30" s="320"/>
+      <c r="S30" s="320"/>
+      <c r="T30" s="320"/>
+      <c r="U30" s="320"/>
+      <c r="V30" s="320"/>
+      <c r="W30" s="320"/>
       <c r="X30" s="190" t="str">
         <f>L30</f>
         <v># 04</v>
@@ -17642,21 +18504,21 @@
     <row r="31" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
-      <c r="I31" s="316" t="s">
+      <c r="I31" s="321" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="317"/>
-      <c r="K31" s="318"/>
+      <c r="J31" s="322"/>
+      <c r="K31" s="323"/>
       <c r="L31" s="68"/>
       <c r="M31" s="134"/>
       <c r="N31" s="74"/>
       <c r="O31" s="7"/>
-      <c r="V31" s="316" t="str">
+      <c r="V31" s="321" t="str">
         <f>I31</f>
         <v>del       21--- al  27    OCTUBRE-2023</v>
       </c>
-      <c r="W31" s="317"/>
-      <c r="X31" s="318"/>
+      <c r="W31" s="322"/>
+      <c r="X31" s="323"/>
     </row>
     <row r="32" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
@@ -18318,12 +19180,12 @@
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="306">
+      <c r="F49" s="307">
         <f>K47+J47+I47+H47+G47+F47+E47+D47+L47</f>
         <v>9341</v>
       </c>
-      <c r="G49" s="319"/>
-      <c r="H49" s="320"/>
+      <c r="G49" s="313"/>
+      <c r="H49" s="314"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -18333,12 +19195,12 @@
       <c r="O49" s="7"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="309">
+      <c r="S49" s="310">
         <f>Q47+R47+S47+T47+U47+V47+W47+X47</f>
         <v>20161</v>
       </c>
-      <c r="T49" s="321"/>
-      <c r="U49" s="322"/>
+      <c r="T49" s="315"/>
+      <c r="U49" s="316"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -18370,33 +19232,33 @@
     <row r="59" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="312" t="s">
+      <c r="C60" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="313"/>
-      <c r="E60" s="313"/>
-      <c r="F60" s="313"/>
-      <c r="G60" s="313"/>
-      <c r="H60" s="313"/>
-      <c r="I60" s="313"/>
-      <c r="J60" s="313"/>
-      <c r="K60" s="313"/>
+      <c r="D60" s="318"/>
+      <c r="E60" s="318"/>
+      <c r="F60" s="318"/>
+      <c r="G60" s="318"/>
+      <c r="H60" s="318"/>
+      <c r="I60" s="318"/>
+      <c r="J60" s="318"/>
+      <c r="K60" s="318"/>
       <c r="L60" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="81"/>
-      <c r="O60" s="314" t="s">
+      <c r="O60" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="315"/>
-      <c r="Q60" s="315"/>
-      <c r="R60" s="315"/>
-      <c r="S60" s="315"/>
-      <c r="T60" s="315"/>
-      <c r="U60" s="315"/>
-      <c r="V60" s="315"/>
-      <c r="W60" s="315"/>
+      <c r="P60" s="320"/>
+      <c r="Q60" s="320"/>
+      <c r="R60" s="320"/>
+      <c r="S60" s="320"/>
+      <c r="T60" s="320"/>
+      <c r="U60" s="320"/>
+      <c r="V60" s="320"/>
+      <c r="W60" s="320"/>
       <c r="X60" s="190" t="s">
         <v>66</v>
       </c>
@@ -18404,21 +19266,21 @@
     <row r="61" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="I61" s="316" t="s">
+      <c r="I61" s="321" t="s">
         <v>209</v>
       </c>
-      <c r="J61" s="317"/>
-      <c r="K61" s="318"/>
+      <c r="J61" s="322"/>
+      <c r="K61" s="323"/>
       <c r="L61" s="68"/>
       <c r="M61" s="134"/>
       <c r="N61" s="74"/>
       <c r="O61" s="7"/>
-      <c r="V61" s="316" t="str">
+      <c r="V61" s="321" t="str">
         <f>I61</f>
         <v>del       14--- al  20    OCTUBRE-2023</v>
       </c>
-      <c r="W61" s="317"/>
-      <c r="X61" s="318"/>
+      <c r="W61" s="322"/>
+      <c r="X61" s="323"/>
     </row>
     <row r="62" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
@@ -19070,12 +19932,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="306">
+      <c r="F79" s="307">
         <f>K77+J77+I77+H77+G77+F77+E77+D77+L77</f>
         <v>12198</v>
       </c>
-      <c r="G79" s="319"/>
-      <c r="H79" s="320"/>
+      <c r="G79" s="313"/>
+      <c r="H79" s="314"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -19085,12 +19947,12 @@
       <c r="O79" s="7"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="309">
+      <c r="S79" s="310">
         <f>Q77+R77+S77+T77+U77+V77+W77+X77</f>
         <v>20122.5</v>
       </c>
-      <c r="T79" s="321"/>
-      <c r="U79" s="322"/>
+      <c r="T79" s="315"/>
+      <c r="U79" s="316"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -19241,33 +20103,33 @@
     <row r="90" spans="2:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B91" s="7"/>
-      <c r="C91" s="312" t="s">
+      <c r="C91" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="313"/>
-      <c r="E91" s="313"/>
-      <c r="F91" s="313"/>
-      <c r="G91" s="313"/>
-      <c r="H91" s="313"/>
-      <c r="I91" s="313"/>
-      <c r="J91" s="313"/>
-      <c r="K91" s="313"/>
+      <c r="D91" s="318"/>
+      <c r="E91" s="318"/>
+      <c r="F91" s="318"/>
+      <c r="G91" s="318"/>
+      <c r="H91" s="318"/>
+      <c r="I91" s="318"/>
+      <c r="J91" s="318"/>
+      <c r="K91" s="318"/>
       <c r="L91" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M91" s="133"/>
       <c r="N91" s="81"/>
-      <c r="O91" s="314" t="s">
+      <c r="O91" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P91" s="315"/>
-      <c r="Q91" s="315"/>
-      <c r="R91" s="315"/>
-      <c r="S91" s="315"/>
-      <c r="T91" s="315"/>
-      <c r="U91" s="315"/>
-      <c r="V91" s="315"/>
-      <c r="W91" s="315"/>
+      <c r="P91" s="320"/>
+      <c r="Q91" s="320"/>
+      <c r="R91" s="320"/>
+      <c r="S91" s="320"/>
+      <c r="T91" s="320"/>
+      <c r="U91" s="320"/>
+      <c r="V91" s="320"/>
+      <c r="W91" s="320"/>
       <c r="X91" s="190" t="s">
         <v>42</v>
       </c>
@@ -19275,21 +20137,21 @@
     <row r="92" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="1"/>
-      <c r="I92" s="316" t="s">
+      <c r="I92" s="321" t="s">
         <v>194</v>
       </c>
-      <c r="J92" s="317"/>
-      <c r="K92" s="318"/>
+      <c r="J92" s="322"/>
+      <c r="K92" s="323"/>
       <c r="L92" s="68"/>
       <c r="M92" s="134"/>
       <c r="N92" s="74"/>
       <c r="O92" s="7"/>
-      <c r="V92" s="316" t="str">
+      <c r="V92" s="321" t="str">
         <f>I92</f>
         <v>del       07--- al  13    OCTUBRE-2023</v>
       </c>
-      <c r="W92" s="317"/>
-      <c r="X92" s="318"/>
+      <c r="W92" s="322"/>
+      <c r="X92" s="323"/>
     </row>
     <row r="93" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
@@ -19942,12 +20804,12 @@
       <c r="C110" s="1"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="306">
+      <c r="F110" s="307">
         <f>K108+J108+I108+H108+G108+F108+E108+D108+L108</f>
         <v>12359</v>
       </c>
-      <c r="G110" s="319"/>
-      <c r="H110" s="320"/>
+      <c r="G110" s="313"/>
+      <c r="H110" s="314"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -19957,12 +20819,12 @@
       <c r="O110" s="7"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-      <c r="S110" s="309">
+      <c r="S110" s="310">
         <f>Q108+R108+S108+T108+U108+V108+W108+X108</f>
         <v>18256.5</v>
       </c>
-      <c r="T110" s="321"/>
-      <c r="U110" s="322"/>
+      <c r="T110" s="315"/>
+      <c r="U110" s="316"/>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
@@ -19993,33 +20855,33 @@
     <row r="115" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B116" s="7"/>
-      <c r="C116" s="312" t="s">
+      <c r="C116" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="313"/>
-      <c r="E116" s="313"/>
-      <c r="F116" s="313"/>
-      <c r="G116" s="313"/>
-      <c r="H116" s="313"/>
-      <c r="I116" s="313"/>
-      <c r="J116" s="313"/>
-      <c r="K116" s="313"/>
+      <c r="D116" s="318"/>
+      <c r="E116" s="318"/>
+      <c r="F116" s="318"/>
+      <c r="G116" s="318"/>
+      <c r="H116" s="318"/>
+      <c r="I116" s="318"/>
+      <c r="J116" s="318"/>
+      <c r="K116" s="318"/>
       <c r="L116" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M116" s="133"/>
       <c r="N116" s="81"/>
-      <c r="O116" s="314" t="s">
+      <c r="O116" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P116" s="315"/>
-      <c r="Q116" s="315"/>
-      <c r="R116" s="315"/>
-      <c r="S116" s="315"/>
-      <c r="T116" s="315"/>
-      <c r="U116" s="315"/>
-      <c r="V116" s="315"/>
-      <c r="W116" s="315"/>
+      <c r="P116" s="320"/>
+      <c r="Q116" s="320"/>
+      <c r="R116" s="320"/>
+      <c r="S116" s="320"/>
+      <c r="T116" s="320"/>
+      <c r="U116" s="320"/>
+      <c r="V116" s="320"/>
+      <c r="W116" s="320"/>
       <c r="X116" s="190" t="s">
         <v>41</v>
       </c>
@@ -20027,21 +20889,21 @@
     <row r="117" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="1"/>
-      <c r="I117" s="316" t="s">
+      <c r="I117" s="321" t="s">
         <v>167</v>
       </c>
-      <c r="J117" s="317"/>
-      <c r="K117" s="318"/>
+      <c r="J117" s="322"/>
+      <c r="K117" s="323"/>
       <c r="L117" s="68"/>
       <c r="M117" s="134"/>
       <c r="N117" s="74"/>
       <c r="O117" s="7"/>
-      <c r="V117" s="316" t="str">
+      <c r="V117" s="321" t="str">
         <f>I117</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W117" s="317"/>
-      <c r="X117" s="318"/>
+      <c r="W117" s="322"/>
+      <c r="X117" s="323"/>
     </row>
     <row r="118" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
@@ -20673,12 +21535,12 @@
       <c r="C135" s="1"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="306">
+      <c r="F135" s="307">
         <f>K133+J133+I133+H133+G133+F133+E133+D133+L133</f>
         <v>7969</v>
       </c>
-      <c r="G135" s="319"/>
-      <c r="H135" s="320"/>
+      <c r="G135" s="313"/>
+      <c r="H135" s="314"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -20688,12 +21550,12 @@
       <c r="O135" s="7"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
-      <c r="S135" s="309">
+      <c r="S135" s="310">
         <f>Q133+R133+S133+T133+U133+V133+W133+X133</f>
         <v>13753</v>
       </c>
-      <c r="T135" s="321"/>
-      <c r="U135" s="322"/>
+      <c r="T135" s="315"/>
+      <c r="U135" s="316"/>
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
@@ -20775,33 +21637,33 @@
     </row>
     <row r="142" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="7"/>
-      <c r="C142" s="312" t="s">
+      <c r="C142" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D142" s="313"/>
-      <c r="E142" s="313"/>
-      <c r="F142" s="313"/>
-      <c r="G142" s="313"/>
-      <c r="H142" s="313"/>
-      <c r="I142" s="313"/>
-      <c r="J142" s="313"/>
-      <c r="K142" s="313"/>
+      <c r="D142" s="318"/>
+      <c r="E142" s="318"/>
+      <c r="F142" s="318"/>
+      <c r="G142" s="318"/>
+      <c r="H142" s="318"/>
+      <c r="I142" s="318"/>
+      <c r="J142" s="318"/>
+      <c r="K142" s="318"/>
       <c r="L142" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M142" s="133"/>
       <c r="N142" s="81"/>
-      <c r="O142" s="314" t="s">
+      <c r="O142" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P142" s="315"/>
-      <c r="Q142" s="315"/>
-      <c r="R142" s="315"/>
-      <c r="S142" s="315"/>
-      <c r="T142" s="315"/>
-      <c r="U142" s="315"/>
-      <c r="V142" s="315"/>
-      <c r="W142" s="315"/>
+      <c r="P142" s="320"/>
+      <c r="Q142" s="320"/>
+      <c r="R142" s="320"/>
+      <c r="S142" s="320"/>
+      <c r="T142" s="320"/>
+      <c r="U142" s="320"/>
+      <c r="V142" s="320"/>
+      <c r="W142" s="320"/>
       <c r="X142" s="190" t="s">
         <v>41</v>
       </c>
@@ -20809,21 +21671,21 @@
     <row r="143" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="1"/>
-      <c r="I143" s="316" t="s">
+      <c r="I143" s="321" t="s">
         <v>167</v>
       </c>
-      <c r="J143" s="317"/>
-      <c r="K143" s="318"/>
+      <c r="J143" s="322"/>
+      <c r="K143" s="323"/>
       <c r="L143" s="68"/>
       <c r="M143" s="134"/>
       <c r="N143" s="74"/>
       <c r="O143" s="7"/>
-      <c r="V143" s="316" t="str">
+      <c r="V143" s="321" t="str">
         <f>I143</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W143" s="317"/>
-      <c r="X143" s="318"/>
+      <c r="W143" s="322"/>
+      <c r="X143" s="323"/>
     </row>
     <row r="144" spans="1:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
@@ -21476,12 +22338,12 @@
       <c r="C161" s="1"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="306">
+      <c r="F161" s="307">
         <f>K159+J159+I159+H159+G159+F159+E159+D159+L159</f>
         <v>12113</v>
       </c>
-      <c r="G161" s="319"/>
-      <c r="H161" s="320"/>
+      <c r="G161" s="313"/>
+      <c r="H161" s="314"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -21491,12 +22353,12 @@
       <c r="O161" s="7"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-      <c r="S161" s="309">
+      <c r="S161" s="310">
         <f>Q159+R159+S159+T159+U159+V159+W159+X159</f>
         <v>19443</v>
       </c>
-      <c r="T161" s="321"/>
-      <c r="U161" s="322"/>
+      <c r="T161" s="315"/>
+      <c r="U161" s="316"/>
       <c r="V161" s="5"/>
       <c r="W161" s="5"/>
       <c r="X161" s="5"/>
@@ -21541,42 +22403,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C116:K116"/>
+    <mergeCell ref="O116:W116"/>
+    <mergeCell ref="I117:K117"/>
+    <mergeCell ref="V117:X117"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="S135:U135"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="O60:W60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="O142:W142"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="V143:X143"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="S161:U161"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="S110:U110"/>
     <mergeCell ref="C30:K30"/>
     <mergeCell ref="O30:W30"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="V31:X31"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="S49:U49"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="V92:X92"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="S110:U110"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="O142:W142"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="V143:X143"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="S161:U161"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="O60:W60"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C116:K116"/>
-    <mergeCell ref="O116:W116"/>
-    <mergeCell ref="I117:K117"/>
-    <mergeCell ref="V117:X117"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="S135:U135"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21624,51 +22486,51 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
       <c r="L2" s="185" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="314" t="s">
+      <c r="O2" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="315"/>
-      <c r="S2" s="315"/>
-      <c r="T2" s="315"/>
-      <c r="U2" s="315"/>
-      <c r="V2" s="315"/>
-      <c r="W2" s="315"/>
+      <c r="P2" s="320"/>
+      <c r="Q2" s="320"/>
+      <c r="R2" s="320"/>
+      <c r="S2" s="320"/>
+      <c r="T2" s="320"/>
+      <c r="U2" s="320"/>
+      <c r="V2" s="320"/>
+      <c r="W2" s="320"/>
       <c r="X2" s="187" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="316" t="s">
+      <c r="I3" s="321" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="317"/>
-      <c r="K3" s="318"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="323"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
-      <c r="V3" s="316" t="s">
+      <c r="V3" s="321" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="317"/>
-      <c r="X3" s="318"/>
+      <c r="W3" s="322"/>
+      <c r="X3" s="323"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -22335,12 +23197,12 @@
     <row r="21" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="306">
+      <c r="F21" s="307">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>15022</v>
       </c>
-      <c r="G21" s="319"/>
-      <c r="H21" s="320"/>
+      <c r="G21" s="313"/>
+      <c r="H21" s="314"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -22349,12 +23211,12 @@
       <c r="N21" s="74"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="309">
+      <c r="S21" s="310">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>23024</v>
       </c>
-      <c r="T21" s="321"/>
-      <c r="U21" s="322"/>
+      <c r="T21" s="315"/>
+      <c r="U21" s="316"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -22407,51 +23269,51 @@
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="312" t="s">
+      <c r="C32" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="313"/>
-      <c r="E32" s="313"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="313"/>
-      <c r="H32" s="313"/>
-      <c r="I32" s="313"/>
-      <c r="J32" s="313"/>
-      <c r="K32" s="313"/>
+      <c r="D32" s="318"/>
+      <c r="E32" s="318"/>
+      <c r="F32" s="318"/>
+      <c r="G32" s="318"/>
+      <c r="H32" s="318"/>
+      <c r="I32" s="318"/>
+      <c r="J32" s="318"/>
+      <c r="K32" s="318"/>
       <c r="L32" s="185" t="s">
         <v>208</v>
       </c>
       <c r="M32" s="133"/>
       <c r="N32" s="81"/>
-      <c r="O32" s="323" t="s">
+      <c r="O32" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="324"/>
-      <c r="Q32" s="324"/>
-      <c r="R32" s="324"/>
-      <c r="S32" s="324"/>
-      <c r="T32" s="324"/>
-      <c r="U32" s="324"/>
-      <c r="V32" s="324"/>
-      <c r="W32" s="324"/>
+      <c r="P32" s="325"/>
+      <c r="Q32" s="325"/>
+      <c r="R32" s="325"/>
+      <c r="S32" s="325"/>
+      <c r="T32" s="325"/>
+      <c r="U32" s="325"/>
+      <c r="V32" s="325"/>
+      <c r="W32" s="325"/>
       <c r="X32" s="128" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="33" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="316" t="s">
+      <c r="I33" s="321" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="317"/>
-      <c r="K33" s="318"/>
+      <c r="J33" s="322"/>
+      <c r="K33" s="323"/>
       <c r="L33" s="68"/>
       <c r="M33" s="134"/>
       <c r="N33" s="74"/>
-      <c r="V33" s="316" t="s">
+      <c r="V33" s="321" t="s">
         <v>150</v>
       </c>
-      <c r="W33" s="317"/>
-      <c r="X33" s="318"/>
+      <c r="W33" s="322"/>
+      <c r="X33" s="323"/>
     </row>
     <row r="34" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
@@ -23107,12 +23969,12 @@
     <row r="51" spans="3:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="306">
+      <c r="F51" s="307">
         <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
         <v>14572.5</v>
       </c>
-      <c r="G51" s="319"/>
-      <c r="H51" s="320"/>
+      <c r="G51" s="313"/>
+      <c r="H51" s="314"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -23121,12 +23983,12 @@
       <c r="N51" s="74"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="309">
+      <c r="S51" s="310">
         <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
         <v>21274</v>
       </c>
-      <c r="T51" s="321"/>
-      <c r="U51" s="322"/>
+      <c r="T51" s="315"/>
+      <c r="U51" s="316"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -23191,51 +24053,51 @@
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C66" s="312" t="s">
+      <c r="C66" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="313"/>
-      <c r="E66" s="313"/>
-      <c r="F66" s="313"/>
-      <c r="G66" s="313"/>
-      <c r="H66" s="313"/>
-      <c r="I66" s="313"/>
-      <c r="J66" s="313"/>
-      <c r="K66" s="313"/>
+      <c r="D66" s="318"/>
+      <c r="E66" s="318"/>
+      <c r="F66" s="318"/>
+      <c r="G66" s="318"/>
+      <c r="H66" s="318"/>
+      <c r="I66" s="318"/>
+      <c r="J66" s="318"/>
+      <c r="K66" s="318"/>
       <c r="L66" s="84" t="s">
         <v>88</v>
       </c>
       <c r="M66" s="83"/>
       <c r="N66" s="81"/>
-      <c r="O66" s="323" t="s">
+      <c r="O66" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="P66" s="324"/>
-      <c r="Q66" s="324"/>
-      <c r="R66" s="324"/>
-      <c r="S66" s="324"/>
-      <c r="T66" s="324"/>
-      <c r="U66" s="324"/>
-      <c r="V66" s="324"/>
-      <c r="W66" s="324"/>
+      <c r="P66" s="325"/>
+      <c r="Q66" s="325"/>
+      <c r="R66" s="325"/>
+      <c r="S66" s="325"/>
+      <c r="T66" s="325"/>
+      <c r="U66" s="325"/>
+      <c r="V66" s="325"/>
+      <c r="W66" s="325"/>
       <c r="X66" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I67" s="316" t="s">
+      <c r="I67" s="321" t="s">
         <v>107</v>
       </c>
-      <c r="J67" s="317"/>
-      <c r="K67" s="318"/>
+      <c r="J67" s="322"/>
+      <c r="K67" s="323"/>
       <c r="L67" s="68"/>
       <c r="M67" s="59"/>
       <c r="N67" s="74"/>
-      <c r="V67" s="316" t="s">
+      <c r="V67" s="321" t="s">
         <v>107</v>
       </c>
-      <c r="W67" s="317"/>
-      <c r="X67" s="318"/>
+      <c r="W67" s="322"/>
+      <c r="X67" s="323"/>
     </row>
     <row r="68" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -23911,12 +24773,12 @@
     <row r="85" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="306">
+      <c r="F85" s="307">
         <f>K83+J83+I83+H83+G83+F83+E83+D83+L83</f>
         <v>9784</v>
       </c>
-      <c r="G85" s="319"/>
-      <c r="H85" s="320"/>
+      <c r="G85" s="313"/>
+      <c r="H85" s="314"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -23925,12 +24787,12 @@
       <c r="N85" s="74"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-      <c r="S85" s="309">
+      <c r="S85" s="310">
         <f>Q83+R83+S83+T83+U83+V83+W83+X83</f>
         <v>18984.5</v>
       </c>
-      <c r="T85" s="321"/>
-      <c r="U85" s="322"/>
+      <c r="T85" s="315"/>
+      <c r="U85" s="316"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
@@ -23983,51 +24845,51 @@
     </row>
     <row r="96" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C97" s="312" t="s">
+      <c r="C97" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="313"/>
-      <c r="E97" s="313"/>
-      <c r="F97" s="313"/>
-      <c r="G97" s="313"/>
-      <c r="H97" s="313"/>
-      <c r="I97" s="313"/>
-      <c r="J97" s="313"/>
-      <c r="K97" s="313"/>
+      <c r="D97" s="318"/>
+      <c r="E97" s="318"/>
+      <c r="F97" s="318"/>
+      <c r="G97" s="318"/>
+      <c r="H97" s="318"/>
+      <c r="I97" s="318"/>
+      <c r="J97" s="318"/>
+      <c r="K97" s="318"/>
       <c r="L97" s="84" t="s">
         <v>66</v>
       </c>
       <c r="M97" s="83"/>
       <c r="N97" s="81"/>
-      <c r="O97" s="323" t="s">
+      <c r="O97" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="P97" s="324"/>
-      <c r="Q97" s="324"/>
-      <c r="R97" s="324"/>
-      <c r="S97" s="324"/>
-      <c r="T97" s="324"/>
-      <c r="U97" s="324"/>
-      <c r="V97" s="324"/>
-      <c r="W97" s="324"/>
+      <c r="P97" s="325"/>
+      <c r="Q97" s="325"/>
+      <c r="R97" s="325"/>
+      <c r="S97" s="325"/>
+      <c r="T97" s="325"/>
+      <c r="U97" s="325"/>
+      <c r="V97" s="325"/>
+      <c r="W97" s="325"/>
       <c r="X97" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="98" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I98" s="316" t="s">
+      <c r="I98" s="321" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="317"/>
-      <c r="K98" s="318"/>
+      <c r="J98" s="322"/>
+      <c r="K98" s="323"/>
       <c r="L98" s="68"/>
       <c r="M98" s="59"/>
       <c r="N98" s="74"/>
-      <c r="V98" s="316" t="s">
+      <c r="V98" s="321" t="s">
         <v>68</v>
       </c>
-      <c r="W98" s="317"/>
-      <c r="X98" s="318"/>
+      <c r="W98" s="322"/>
+      <c r="X98" s="323"/>
     </row>
     <row r="99" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
@@ -24699,12 +25561,12 @@
     <row r="116" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="306">
+      <c r="F116" s="307">
         <f>K114+J114+I114+H114+G114+F114+E114+D114+L114</f>
         <v>13702.5</v>
       </c>
-      <c r="G116" s="319"/>
-      <c r="H116" s="320"/>
+      <c r="G116" s="313"/>
+      <c r="H116" s="314"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -24713,12 +25575,12 @@
       <c r="N116" s="74"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-      <c r="S116" s="309">
+      <c r="S116" s="310">
         <f>Q114+R114+S114+T114+U114+V114+W114+X114</f>
         <v>19583</v>
       </c>
-      <c r="T116" s="321"/>
-      <c r="U116" s="322"/>
+      <c r="T116" s="315"/>
+      <c r="U116" s="316"/>
       <c r="V116" s="5">
         <v>19583</v>
       </c>
@@ -24773,48 +25635,48 @@
     </row>
     <row r="129" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C130" s="312" t="s">
+      <c r="C130" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D130" s="313"/>
-      <c r="E130" s="313"/>
-      <c r="F130" s="313"/>
-      <c r="G130" s="313"/>
-      <c r="H130" s="313"/>
-      <c r="I130" s="313"/>
-      <c r="J130" s="313"/>
-      <c r="K130" s="313"/>
+      <c r="D130" s="318"/>
+      <c r="E130" s="318"/>
+      <c r="F130" s="318"/>
+      <c r="G130" s="318"/>
+      <c r="H130" s="318"/>
+      <c r="I130" s="318"/>
+      <c r="J130" s="318"/>
+      <c r="K130" s="318"/>
       <c r="L130" s="84" t="s">
         <v>42</v>
       </c>
       <c r="M130" s="83"/>
       <c r="N130" s="81"/>
-      <c r="O130" s="323" t="s">
+      <c r="O130" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="P130" s="324"/>
-      <c r="Q130" s="324"/>
-      <c r="R130" s="324"/>
-      <c r="S130" s="324"/>
-      <c r="T130" s="324"/>
-      <c r="U130" s="324"/>
-      <c r="V130" s="324"/>
-      <c r="W130" s="324"/>
+      <c r="P130" s="325"/>
+      <c r="Q130" s="325"/>
+      <c r="R130" s="325"/>
+      <c r="S130" s="325"/>
+      <c r="T130" s="325"/>
+      <c r="U130" s="325"/>
+      <c r="V130" s="325"/>
+      <c r="W130" s="325"/>
       <c r="X130" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="131" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I131" s="316" t="s">
+      <c r="I131" s="321" t="s">
         <v>67</v>
       </c>
-      <c r="J131" s="317"/>
-      <c r="K131" s="318"/>
+      <c r="J131" s="322"/>
+      <c r="K131" s="323"/>
       <c r="L131" s="68"/>
       <c r="M131" s="59"/>
       <c r="N131" s="74"/>
-      <c r="W131" s="317"/>
-      <c r="X131" s="318"/>
+      <c r="W131" s="322"/>
+      <c r="X131" s="323"/>
     </row>
     <row r="132" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
@@ -25481,12 +26343,12 @@
     <row r="149" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="306">
+      <c r="F149" s="307">
         <f>K147+J147+I147+H147+G147+F147+E147+D147+L147</f>
         <v>13447.5</v>
       </c>
-      <c r="G149" s="319"/>
-      <c r="H149" s="320"/>
+      <c r="G149" s="313"/>
+      <c r="H149" s="314"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
         <v>13447.5</v>
@@ -25497,12 +26359,12 @@
       <c r="N149" s="74"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-      <c r="S149" s="309">
+      <c r="S149" s="310">
         <f>Q147+R147+S147+T147+U147+V147+W147+X147</f>
         <v>19080.5</v>
       </c>
-      <c r="T149" s="321"/>
-      <c r="U149" s="322"/>
+      <c r="T149" s="315"/>
+      <c r="U149" s="316"/>
       <c r="V149" s="5">
         <v>19080.5</v>
       </c>
@@ -25581,48 +26443,48 @@
     </row>
     <row r="155" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="156" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C156" s="312" t="s">
+      <c r="C156" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D156" s="313"/>
-      <c r="E156" s="313"/>
-      <c r="F156" s="313"/>
-      <c r="G156" s="313"/>
-      <c r="H156" s="313"/>
-      <c r="I156" s="313"/>
-      <c r="J156" s="313"/>
-      <c r="K156" s="313"/>
+      <c r="D156" s="318"/>
+      <c r="E156" s="318"/>
+      <c r="F156" s="318"/>
+      <c r="G156" s="318"/>
+      <c r="H156" s="318"/>
+      <c r="I156" s="318"/>
+      <c r="J156" s="318"/>
+      <c r="K156" s="318"/>
       <c r="L156" s="84" t="s">
         <v>41</v>
       </c>
       <c r="M156" s="83"/>
       <c r="N156" s="81"/>
-      <c r="O156" s="323" t="s">
+      <c r="O156" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="P156" s="324"/>
-      <c r="Q156" s="324"/>
-      <c r="R156" s="324"/>
-      <c r="S156" s="324"/>
-      <c r="T156" s="324"/>
-      <c r="U156" s="324"/>
-      <c r="V156" s="324"/>
-      <c r="W156" s="324"/>
+      <c r="P156" s="325"/>
+      <c r="Q156" s="325"/>
+      <c r="R156" s="325"/>
+      <c r="S156" s="325"/>
+      <c r="T156" s="325"/>
+      <c r="U156" s="325"/>
+      <c r="V156" s="325"/>
+      <c r="W156" s="325"/>
       <c r="X156" s="85" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="157" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I157" s="316" t="s">
+      <c r="I157" s="321" t="s">
         <v>37</v>
       </c>
-      <c r="J157" s="317"/>
-      <c r="K157" s="318"/>
+      <c r="J157" s="322"/>
+      <c r="K157" s="323"/>
       <c r="L157" s="68"/>
       <c r="M157" s="59"/>
       <c r="N157" s="74"/>
-      <c r="W157" s="317"/>
-      <c r="X157" s="318"/>
+      <c r="W157" s="322"/>
+      <c r="X157" s="323"/>
     </row>
     <row r="158" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
@@ -26839,12 +27701,12 @@
     <row r="184" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="325">
+      <c r="F184" s="326">
         <f>K182+J182+I182+H182+G182+F182+E182+D182</f>
         <v>13579</v>
       </c>
-      <c r="G184" s="319"/>
-      <c r="H184" s="320"/>
+      <c r="G184" s="313"/>
+      <c r="H184" s="314"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5">
         <v>13579</v>
@@ -26855,12 +27717,12 @@
       <c r="N184" s="74"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-      <c r="S184" s="309">
+      <c r="S184" s="310">
         <f>Q182+R182+S182+T182+U182+V182+W182+X182</f>
         <v>20452</v>
       </c>
-      <c r="T184" s="321"/>
-      <c r="U184" s="322"/>
+      <c r="T184" s="315"/>
+      <c r="U184" s="316"/>
       <c r="V184" s="5">
         <v>20452</v>
       </c>
@@ -26947,42 +27809,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="O97:W97"/>
+    <mergeCell ref="S116:U116"/>
+    <mergeCell ref="V98:X98"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="C156:K156"/>
+    <mergeCell ref="S184:U184"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="O156:W156"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="O130:W130"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="S149:U149"/>
     <mergeCell ref="C66:K66"/>
     <mergeCell ref="O66:W66"/>
     <mergeCell ref="I67:K67"/>
     <mergeCell ref="V67:X67"/>
     <mergeCell ref="F85:H85"/>
     <mergeCell ref="S85:U85"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="O130:W130"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="S149:U149"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="C156:K156"/>
-    <mergeCell ref="S184:U184"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="O156:W156"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="O97:W97"/>
-    <mergeCell ref="S116:U116"/>
-    <mergeCell ref="V98:X98"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27014,51 +27876,51 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="312" t="s">
+      <c r="D2" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="312" t="s">
+      <c r="T2" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="313"/>
-      <c r="V2" s="313"/>
-      <c r="W2" s="313"/>
-      <c r="X2" s="313"/>
-      <c r="Y2" s="313"/>
-      <c r="Z2" s="313"/>
-      <c r="AA2" s="313"/>
-      <c r="AB2" s="313"/>
+      <c r="U2" s="318"/>
+      <c r="V2" s="318"/>
+      <c r="W2" s="318"/>
+      <c r="X2" s="318"/>
+      <c r="Y2" s="318"/>
+      <c r="Z2" s="318"/>
+      <c r="AA2" s="318"/>
+      <c r="AB2" s="318"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="316" t="s">
+      <c r="J3" s="321" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="317"/>
-      <c r="L3" s="326"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="327"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="316" t="s">
+      <c r="Z3" s="321" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="317"/>
-      <c r="AB3" s="318"/>
+      <c r="AA3" s="322"/>
+      <c r="AB3" s="323"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -27583,51 +28445,51 @@
     <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="7"/>
-      <c r="D16" s="323" t="s">
+      <c r="D16" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="324"/>
-      <c r="F16" s="324"/>
-      <c r="G16" s="324"/>
-      <c r="H16" s="324"/>
-      <c r="I16" s="324"/>
-      <c r="J16" s="324"/>
-      <c r="K16" s="324"/>
-      <c r="L16" s="324"/>
+      <c r="E16" s="325"/>
+      <c r="F16" s="325"/>
+      <c r="G16" s="325"/>
+      <c r="H16" s="325"/>
+      <c r="I16" s="325"/>
+      <c r="J16" s="325"/>
+      <c r="K16" s="325"/>
+      <c r="L16" s="325"/>
       <c r="M16" s="171"/>
       <c r="N16" s="151"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="323" t="s">
+      <c r="T16" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="324"/>
-      <c r="V16" s="324"/>
-      <c r="W16" s="324"/>
-      <c r="X16" s="324"/>
-      <c r="Y16" s="324"/>
-      <c r="Z16" s="324"/>
-      <c r="AA16" s="324"/>
-      <c r="AB16" s="324"/>
+      <c r="U16" s="325"/>
+      <c r="V16" s="325"/>
+      <c r="W16" s="325"/>
+      <c r="X16" s="325"/>
+      <c r="Y16" s="325"/>
+      <c r="Z16" s="325"/>
+      <c r="AA16" s="325"/>
+      <c r="AB16" s="325"/>
       <c r="AC16" s="171"/>
       <c r="AD16" s="151"/>
     </row>
     <row r="17" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
-      <c r="J17" s="316" t="s">
+      <c r="J17" s="321" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="317"/>
-      <c r="L17" s="326"/>
+      <c r="K17" s="322"/>
+      <c r="L17" s="327"/>
       <c r="M17" s="68"/>
       <c r="N17" s="152"/>
       <c r="S17" s="7"/>
       <c r="T17" s="1"/>
-      <c r="Z17" s="316" t="s">
+      <c r="Z17" s="321" t="s">
         <v>184</v>
       </c>
-      <c r="AA17" s="317"/>
-      <c r="AB17" s="318"/>
+      <c r="AA17" s="322"/>
+      <c r="AB17" s="323"/>
       <c r="AC17" s="68"/>
       <c r="AD17" s="152"/>
     </row>
@@ -28173,110 +29035,110 @@
     <row r="1" spans="2:81" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:81" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="312" t="s">
+      <c r="D2" s="317" t="s">
         <v>409</v>
       </c>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="312" t="s">
+      <c r="T2" s="317" t="s">
         <v>336</v>
       </c>
-      <c r="U2" s="313"/>
-      <c r="V2" s="313"/>
-      <c r="W2" s="313"/>
-      <c r="X2" s="313"/>
-      <c r="Y2" s="313"/>
-      <c r="Z2" s="313"/>
-      <c r="AA2" s="313"/>
-      <c r="AB2" s="313"/>
+      <c r="U2" s="318"/>
+      <c r="V2" s="318"/>
+      <c r="W2" s="318"/>
+      <c r="X2" s="318"/>
+      <c r="Y2" s="318"/>
+      <c r="Z2" s="318"/>
+      <c r="AA2" s="318"/>
+      <c r="AB2" s="318"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
       <c r="AK2" s="7"/>
-      <c r="AL2" s="312" t="s">
+      <c r="AL2" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" s="313"/>
-      <c r="AN2" s="313"/>
-      <c r="AO2" s="313"/>
-      <c r="AP2" s="313"/>
-      <c r="AQ2" s="313"/>
-      <c r="AR2" s="313"/>
-      <c r="AS2" s="313"/>
-      <c r="AT2" s="313"/>
+      <c r="AM2" s="318"/>
+      <c r="AN2" s="318"/>
+      <c r="AO2" s="318"/>
+      <c r="AP2" s="318"/>
+      <c r="AQ2" s="318"/>
+      <c r="AR2" s="318"/>
+      <c r="AS2" s="318"/>
+      <c r="AT2" s="318"/>
       <c r="AU2" s="84"/>
       <c r="AV2" s="151"/>
       <c r="BB2" s="7"/>
-      <c r="BC2" s="312" t="s">
+      <c r="BC2" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" s="313"/>
-      <c r="BE2" s="313"/>
-      <c r="BF2" s="313"/>
-      <c r="BG2" s="313"/>
-      <c r="BH2" s="313"/>
-      <c r="BI2" s="313"/>
-      <c r="BJ2" s="313"/>
-      <c r="BK2" s="313"/>
+      <c r="BD2" s="318"/>
+      <c r="BE2" s="318"/>
+      <c r="BF2" s="318"/>
+      <c r="BG2" s="318"/>
+      <c r="BH2" s="318"/>
+      <c r="BI2" s="318"/>
+      <c r="BJ2" s="318"/>
+      <c r="BK2" s="318"/>
       <c r="BL2" s="84"/>
       <c r="BM2" s="151"/>
       <c r="BQ2" s="7"/>
-      <c r="BR2" s="312" t="s">
+      <c r="BR2" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="BS2" s="313"/>
-      <c r="BT2" s="313"/>
-      <c r="BU2" s="313"/>
-      <c r="BV2" s="313"/>
-      <c r="BW2" s="313"/>
-      <c r="BX2" s="313"/>
-      <c r="BY2" s="313"/>
-      <c r="BZ2" s="313"/>
+      <c r="BS2" s="318"/>
+      <c r="BT2" s="318"/>
+      <c r="BU2" s="318"/>
+      <c r="BV2" s="318"/>
+      <c r="BW2" s="318"/>
+      <c r="BX2" s="318"/>
+      <c r="BY2" s="318"/>
+      <c r="BZ2" s="318"/>
       <c r="CA2" s="84"/>
       <c r="CB2" s="151"/>
     </row>
     <row r="3" spans="2:81" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="317"/>
-      <c r="L3" s="326"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="327"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="316"/>
-      <c r="AA3" s="317"/>
-      <c r="AB3" s="326"/>
+      <c r="Z3" s="321"/>
+      <c r="AA3" s="322"/>
+      <c r="AB3" s="327"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="1"/>
-      <c r="AR3" s="316"/>
-      <c r="AS3" s="317"/>
-      <c r="AT3" s="326"/>
+      <c r="AR3" s="321"/>
+      <c r="AS3" s="322"/>
+      <c r="AT3" s="327"/>
       <c r="AU3" s="68"/>
       <c r="AV3" s="152"/>
       <c r="BB3" s="7"/>
       <c r="BC3" s="1"/>
-      <c r="BI3" s="316"/>
-      <c r="BJ3" s="317"/>
-      <c r="BK3" s="326"/>
+      <c r="BI3" s="321"/>
+      <c r="BJ3" s="322"/>
+      <c r="BK3" s="327"/>
       <c r="BL3" s="68"/>
       <c r="BM3" s="152"/>
       <c r="BQ3" s="7"/>
       <c r="BR3" s="1"/>
-      <c r="BX3" s="316"/>
-      <c r="BY3" s="317"/>
-      <c r="BZ3" s="318"/>
+      <c r="BX3" s="321"/>
+      <c r="BY3" s="322"/>
+      <c r="BZ3" s="323"/>
       <c r="CA3" s="68"/>
       <c r="CB3" s="152"/>
     </row>
@@ -28999,12 +29861,12 @@
       <c r="BR7" s="153"/>
       <c r="BS7" s="225"/>
       <c r="BT7" s="227"/>
-      <c r="BU7" s="336" t="s">
+      <c r="BU7" s="337" t="s">
         <v>192</v>
       </c>
-      <c r="BV7" s="336"/>
-      <c r="BW7" s="336"/>
-      <c r="BX7" s="337"/>
+      <c r="BV7" s="337"/>
+      <c r="BW7" s="337"/>
+      <c r="BX7" s="338"/>
       <c r="BY7" s="226"/>
       <c r="BZ7" s="225"/>
       <c r="CA7" s="228"/>
@@ -29340,12 +30202,12 @@
       <c r="B10" s="154"/>
       <c r="E10" s="30"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="327" t="s">
+      <c r="G10" s="328" t="s">
         <v>415</v>
       </c>
-      <c r="H10" s="328"/>
-      <c r="I10" s="328"/>
-      <c r="J10" s="329"/>
+      <c r="H10" s="329"/>
+      <c r="I10" s="329"/>
+      <c r="J10" s="330"/>
       <c r="K10" s="22"/>
       <c r="L10" s="157"/>
       <c r="M10" s="299"/>
@@ -29355,12 +30217,12 @@
       <c r="R10" s="154"/>
       <c r="U10" s="30"/>
       <c r="V10" s="31"/>
-      <c r="W10" s="327" t="s">
+      <c r="W10" s="328" t="s">
         <v>345</v>
       </c>
-      <c r="X10" s="328"/>
-      <c r="Y10" s="328"/>
-      <c r="Z10" s="329"/>
+      <c r="X10" s="329"/>
+      <c r="Y10" s="329"/>
+      <c r="Z10" s="330"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="157"/>
       <c r="AC10" s="77"/>
@@ -29370,12 +30232,12 @@
       <c r="AJ10" s="154"/>
       <c r="AM10" s="30"/>
       <c r="AN10" s="31"/>
-      <c r="AO10" s="327" t="s">
+      <c r="AO10" s="328" t="s">
         <v>267</v>
       </c>
-      <c r="AP10" s="328"/>
-      <c r="AQ10" s="328"/>
-      <c r="AR10" s="329"/>
+      <c r="AP10" s="329"/>
+      <c r="AQ10" s="329"/>
+      <c r="AR10" s="330"/>
       <c r="AS10" s="22"/>
       <c r="AT10" s="157"/>
       <c r="AU10" s="77"/>
@@ -29385,12 +30247,12 @@
       <c r="BA10" s="154"/>
       <c r="BD10" s="30"/>
       <c r="BE10" s="31"/>
-      <c r="BF10" s="338" t="s">
+      <c r="BF10" s="339" t="s">
         <v>193</v>
       </c>
-      <c r="BG10" s="339"/>
-      <c r="BH10" s="339"/>
-      <c r="BI10" s="340"/>
+      <c r="BG10" s="340"/>
+      <c r="BH10" s="340"/>
+      <c r="BI10" s="341"/>
       <c r="BJ10" s="22"/>
       <c r="BK10" s="157"/>
       <c r="BL10" s="77"/>
@@ -29494,11 +30356,11 @@
     <row r="12" spans="2:81" s="80" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="235"/>
       <c r="D12" s="129"/>
-      <c r="E12" s="341" t="s">
+      <c r="E12" s="331" t="s">
         <v>414</v>
       </c>
-      <c r="F12" s="342"/>
-      <c r="G12" s="343"/>
+      <c r="F12" s="332"/>
+      <c r="G12" s="333"/>
       <c r="H12" s="78"/>
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
@@ -29508,11 +30370,11 @@
       <c r="N12" s="209"/>
       <c r="S12" s="235"/>
       <c r="T12" s="129"/>
-      <c r="U12" s="331" t="s">
+      <c r="U12" s="342" t="s">
         <v>342</v>
       </c>
-      <c r="V12" s="332"/>
-      <c r="W12" s="333"/>
+      <c r="V12" s="343"/>
+      <c r="W12" s="344"/>
       <c r="X12" s="78"/>
       <c r="Y12" s="78"/>
       <c r="Z12" s="78"/>
@@ -30092,73 +30954,73 @@
     </row>
     <row r="22" spans="2:81" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="7"/>
-      <c r="D22" s="323" t="s">
+      <c r="D22" s="324" t="s">
         <v>416</v>
       </c>
-      <c r="E22" s="324"/>
-      <c r="F22" s="324"/>
-      <c r="G22" s="324"/>
-      <c r="H22" s="324"/>
-      <c r="I22" s="324"/>
-      <c r="J22" s="324"/>
-      <c r="K22" s="324"/>
-      <c r="L22" s="330"/>
+      <c r="E22" s="325"/>
+      <c r="F22" s="325"/>
+      <c r="G22" s="325"/>
+      <c r="H22" s="325"/>
+      <c r="I22" s="325"/>
+      <c r="J22" s="325"/>
+      <c r="K22" s="325"/>
+      <c r="L22" s="334"/>
       <c r="M22" s="262"/>
       <c r="N22" s="151"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="323" t="s">
+      <c r="T22" s="324" t="s">
         <v>343</v>
       </c>
-      <c r="U22" s="324"/>
-      <c r="V22" s="324"/>
-      <c r="W22" s="324"/>
-      <c r="X22" s="324"/>
-      <c r="Y22" s="324"/>
-      <c r="Z22" s="324"/>
-      <c r="AA22" s="324"/>
-      <c r="AB22" s="330"/>
+      <c r="U22" s="325"/>
+      <c r="V22" s="325"/>
+      <c r="W22" s="325"/>
+      <c r="X22" s="325"/>
+      <c r="Y22" s="325"/>
+      <c r="Z22" s="325"/>
+      <c r="AA22" s="325"/>
+      <c r="AB22" s="334"/>
       <c r="AC22" s="262"/>
       <c r="AD22" s="151"/>
       <c r="AK22" s="7"/>
-      <c r="AL22" s="323" t="s">
+      <c r="AL22" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="AM22" s="324"/>
-      <c r="AN22" s="324"/>
-      <c r="AO22" s="324"/>
-      <c r="AP22" s="324"/>
-      <c r="AQ22" s="324"/>
-      <c r="AR22" s="324"/>
-      <c r="AS22" s="324"/>
-      <c r="AT22" s="330"/>
+      <c r="AM22" s="325"/>
+      <c r="AN22" s="325"/>
+      <c r="AO22" s="325"/>
+      <c r="AP22" s="325"/>
+      <c r="AQ22" s="325"/>
+      <c r="AR22" s="325"/>
+      <c r="AS22" s="325"/>
+      <c r="AT22" s="334"/>
       <c r="AU22" s="171"/>
       <c r="AV22" s="151"/>
       <c r="BB22" s="7"/>
-      <c r="BC22" s="323" t="s">
+      <c r="BC22" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="BD22" s="324"/>
-      <c r="BE22" s="324"/>
-      <c r="BF22" s="324"/>
-      <c r="BG22" s="324"/>
-      <c r="BH22" s="324"/>
-      <c r="BI22" s="324"/>
-      <c r="BJ22" s="324"/>
-      <c r="BK22" s="330"/>
+      <c r="BD22" s="325"/>
+      <c r="BE22" s="325"/>
+      <c r="BF22" s="325"/>
+      <c r="BG22" s="325"/>
+      <c r="BH22" s="325"/>
+      <c r="BI22" s="325"/>
+      <c r="BJ22" s="325"/>
+      <c r="BK22" s="334"/>
       <c r="BL22" s="171"/>
       <c r="BM22" s="151"/>
       <c r="BQ22" s="7"/>
-      <c r="BR22" s="323" t="s">
+      <c r="BR22" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="BS22" s="324"/>
-      <c r="BT22" s="324"/>
-      <c r="BU22" s="324"/>
-      <c r="BV22" s="324"/>
-      <c r="BW22" s="324"/>
-      <c r="BX22" s="324"/>
-      <c r="BY22" s="324"/>
-      <c r="BZ22" s="324"/>
+      <c r="BS22" s="325"/>
+      <c r="BT22" s="325"/>
+      <c r="BU22" s="325"/>
+      <c r="BV22" s="325"/>
+      <c r="BW22" s="325"/>
+      <c r="BX22" s="325"/>
+      <c r="BY22" s="325"/>
+      <c r="BZ22" s="325"/>
       <c r="CA22" s="171"/>
       <c r="CB22" s="151"/>
     </row>
@@ -30193,9 +31055,9 @@
       <c r="BM23" s="152"/>
       <c r="BQ23" s="7"/>
       <c r="BR23" s="1"/>
-      <c r="BX23" s="316"/>
-      <c r="BY23" s="317"/>
-      <c r="BZ23" s="318"/>
+      <c r="BX23" s="321"/>
+      <c r="BY23" s="322"/>
+      <c r="BZ23" s="323"/>
       <c r="CA23" s="68"/>
       <c r="CB23" s="152"/>
     </row>
@@ -31078,12 +31940,12 @@
       <c r="BP28" s="154"/>
       <c r="BS28" s="30"/>
       <c r="BT28" s="31"/>
-      <c r="BU28" s="334" t="s">
+      <c r="BU28" s="335" t="s">
         <v>192</v>
       </c>
-      <c r="BV28" s="334"/>
-      <c r="BW28" s="334"/>
-      <c r="BX28" s="335"/>
+      <c r="BV28" s="335"/>
+      <c r="BW28" s="335"/>
+      <c r="BX28" s="336"/>
       <c r="BY28" s="22"/>
       <c r="BZ28" s="157"/>
       <c r="CA28" s="77"/>
@@ -31242,12 +32104,12 @@
       <c r="B30" s="154"/>
       <c r="E30" s="30"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="327" t="s">
+      <c r="G30" s="328" t="s">
         <v>419</v>
       </c>
-      <c r="H30" s="328"/>
-      <c r="I30" s="328"/>
-      <c r="J30" s="329"/>
+      <c r="H30" s="329"/>
+      <c r="I30" s="329"/>
+      <c r="J30" s="330"/>
       <c r="K30" s="22"/>
       <c r="L30" s="157"/>
       <c r="M30" s="77"/>
@@ -31257,12 +32119,12 @@
       <c r="R30" s="154"/>
       <c r="U30" s="30"/>
       <c r="V30" s="31"/>
-      <c r="W30" s="327" t="s">
+      <c r="W30" s="328" t="s">
         <v>345</v>
       </c>
-      <c r="X30" s="328"/>
-      <c r="Y30" s="328"/>
-      <c r="Z30" s="329"/>
+      <c r="X30" s="329"/>
+      <c r="Y30" s="329"/>
+      <c r="Z30" s="330"/>
       <c r="AA30" s="22"/>
       <c r="AB30" s="157"/>
       <c r="AC30" s="77"/>
@@ -31272,12 +32134,12 @@
       <c r="AJ30" s="154"/>
       <c r="AM30" s="30"/>
       <c r="AN30" s="31"/>
-      <c r="AO30" s="327" t="s">
+      <c r="AO30" s="328" t="s">
         <v>267</v>
       </c>
-      <c r="AP30" s="328"/>
-      <c r="AQ30" s="328"/>
-      <c r="AR30" s="329"/>
+      <c r="AP30" s="329"/>
+      <c r="AQ30" s="329"/>
+      <c r="AR30" s="330"/>
       <c r="AS30" s="22"/>
       <c r="AT30" s="157"/>
       <c r="AU30" s="77"/>
@@ -31287,12 +32149,12 @@
       <c r="BA30" s="154"/>
       <c r="BD30" s="30"/>
       <c r="BE30" s="31"/>
-      <c r="BF30" s="327" t="s">
+      <c r="BF30" s="328" t="s">
         <v>193</v>
       </c>
-      <c r="BG30" s="328"/>
-      <c r="BH30" s="328"/>
-      <c r="BI30" s="329"/>
+      <c r="BG30" s="329"/>
+      <c r="BH30" s="329"/>
+      <c r="BI30" s="330"/>
       <c r="BJ30" s="22"/>
       <c r="BK30" s="157"/>
       <c r="BL30" s="77"/>
@@ -31528,34 +32390,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="T22:AB22"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AL22:AT22"/>
+    <mergeCell ref="AO30:AR30"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BU28:BX28"/>
+    <mergeCell ref="BC22:BK22"/>
+    <mergeCell ref="BU7:BX7"/>
+    <mergeCell ref="BF10:BI10"/>
+    <mergeCell ref="BR2:BZ2"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BR22:BZ22"/>
+    <mergeCell ref="BX23:BZ23"/>
+    <mergeCell ref="BC2:BK2"/>
+    <mergeCell ref="BI3:BK3"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="D22:L22"/>
-    <mergeCell ref="BR2:BZ2"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="BR22:BZ22"/>
-    <mergeCell ref="BX23:BZ23"/>
-    <mergeCell ref="BC2:BK2"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BU28:BX28"/>
-    <mergeCell ref="BC22:BK22"/>
-    <mergeCell ref="BU7:BX7"/>
-    <mergeCell ref="BF10:BI10"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AL22:AT22"/>
-    <mergeCell ref="AO30:AR30"/>
-    <mergeCell ref="T2:AB2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="T22:AB22"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="U12:W12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
